--- a/Data.xlsx
+++ b/Data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/nejcjenko/Documents/FP/Projekt/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{102F0F47-0B23-7646-AF0C-BA921B178FC9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{932A50F9-525E-B54D-942A-1683E491EE62}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="27640" windowHeight="15680" xr2:uid="{70F57464-07EE-6D44-894E-A2427728D4C0}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="13">
   <si>
     <t>1. pareto fornta</t>
   </si>
@@ -65,14 +65,39 @@
   <si>
     <t>št. Točk v prvih 5 pareto frontah</t>
   </si>
+  <si>
+    <t>50 TOČK</t>
+  </si>
+  <si>
+    <t>100 TOČK</t>
+  </si>
+  <si>
+    <t>200 TOČK</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="26"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -99,8 +124,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -415,10 +445,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FE1C919C-7229-7041-875E-3BE3CDC2D46A}">
-  <dimension ref="B2:I15"/>
+  <dimension ref="B2:I45"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I19" sqref="I19"/>
+    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="J34" sqref="J34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -429,256 +459,218 @@
     <col min="9" max="9" width="27.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B2" t="s">
+    <row r="2" spans="2:9" ht="16" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B2" s="2" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="4" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B4" t="s">
+      <c r="C2" s="2"/>
+      <c r="D2" s="3"/>
+      <c r="E2" s="3"/>
+      <c r="F2" s="3"/>
+    </row>
+    <row r="3" spans="2:9" ht="16" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B3" s="2"/>
+      <c r="C3" s="2"/>
+      <c r="D3" s="3"/>
+      <c r="E3" s="3"/>
+      <c r="F3" s="3"/>
+    </row>
+    <row r="5" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B5" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B6" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="C4" t="s">
+      <c r="C6" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="D4" t="s">
+      <c r="D6" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="E4" t="s">
+      <c r="E6" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="F4" t="s">
+      <c r="F6" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="G4" t="s">
+      <c r="G6" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="H4" t="s">
+      <c r="H6" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="I4" t="s">
+      <c r="I6" s="1" t="s">
         <v>9</v>
-      </c>
-    </row>
-    <row r="5" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B5">
-        <v>1</v>
-      </c>
-      <c r="C5">
-        <v>50</v>
-      </c>
-      <c r="D5">
-        <v>8</v>
-      </c>
-      <c r="E5">
-        <v>14</v>
-      </c>
-      <c r="F5">
-        <v>12</v>
-      </c>
-      <c r="G5">
-        <v>11</v>
-      </c>
-      <c r="H5">
-        <v>2</v>
-      </c>
-      <c r="I5">
-        <f>SUM(D5:H5)</f>
-        <v>47</v>
-      </c>
-    </row>
-    <row r="6" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B6">
-        <v>2</v>
-      </c>
-      <c r="C6">
-        <v>50</v>
-      </c>
-      <c r="D6">
-        <v>14</v>
-      </c>
-      <c r="E6">
-        <v>14</v>
-      </c>
-      <c r="F6">
-        <v>11</v>
-      </c>
-      <c r="G6">
-        <v>4</v>
-      </c>
-      <c r="H6">
-        <v>4</v>
-      </c>
-      <c r="I6">
-        <f t="shared" ref="I6:I14" si="0">SUM(D6:H6)</f>
-        <v>47</v>
       </c>
     </row>
     <row r="7" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B7">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C7">
         <v>50</v>
       </c>
       <c r="D7">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="E7">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="F7">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="G7">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="H7">
         <v>2</v>
       </c>
       <c r="I7">
+        <f>SUM(D7:H7)</f>
+        <v>47</v>
+      </c>
+    </row>
+    <row r="8" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B8">
+        <v>2</v>
+      </c>
+      <c r="C8">
+        <v>50</v>
+      </c>
+      <c r="D8">
+        <v>14</v>
+      </c>
+      <c r="E8">
+        <v>14</v>
+      </c>
+      <c r="F8">
+        <v>11</v>
+      </c>
+      <c r="G8">
+        <v>4</v>
+      </c>
+      <c r="H8">
+        <v>4</v>
+      </c>
+      <c r="I8">
+        <f t="shared" ref="I8:I16" si="0">SUM(D8:H8)</f>
+        <v>47</v>
+      </c>
+    </row>
+    <row r="9" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B9">
+        <v>3</v>
+      </c>
+      <c r="C9">
+        <v>50</v>
+      </c>
+      <c r="D9">
+        <v>13</v>
+      </c>
+      <c r="E9">
+        <v>17</v>
+      </c>
+      <c r="F9">
+        <v>10</v>
+      </c>
+      <c r="G9">
+        <v>4</v>
+      </c>
+      <c r="H9">
+        <v>2</v>
+      </c>
+      <c r="I9">
         <f t="shared" si="0"/>
         <v>46</v>
       </c>
     </row>
-    <row r="8" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B8">
+    <row r="10" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B10">
         <v>4</v>
       </c>
-      <c r="C8">
+      <c r="C10">
         <v>50</v>
       </c>
-      <c r="D8">
+      <c r="D10">
         <v>12</v>
       </c>
-      <c r="E8">
+      <c r="E10">
         <v>13</v>
       </c>
-      <c r="F8">
+      <c r="F10">
         <v>12</v>
       </c>
-      <c r="G8">
+      <c r="G10">
         <v>6</v>
       </c>
-      <c r="H8">
+      <c r="H10">
         <v>7</v>
       </c>
-      <c r="I8">
+      <c r="I10">
         <f t="shared" si="0"/>
         <v>50</v>
       </c>
     </row>
-    <row r="9" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B9">
-        <v>5</v>
-      </c>
-      <c r="C9">
-        <v>50</v>
-      </c>
-      <c r="D9">
-        <v>11</v>
-      </c>
-      <c r="E9">
-        <v>17</v>
-      </c>
-      <c r="F9">
-        <v>12</v>
-      </c>
-      <c r="G9">
-        <v>4</v>
-      </c>
-      <c r="H9">
-        <v>4</v>
-      </c>
-      <c r="I9">
-        <f>SUM(D9:H9)</f>
-        <v>48</v>
-      </c>
-    </row>
-    <row r="10" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B10">
-        <v>6</v>
-      </c>
-      <c r="C10">
-        <v>50</v>
-      </c>
-      <c r="D10">
-        <v>10</v>
-      </c>
-      <c r="E10">
-        <v>18</v>
-      </c>
-      <c r="F10">
-        <v>9</v>
-      </c>
-      <c r="G10">
-        <v>5</v>
-      </c>
-      <c r="H10">
-        <v>4</v>
-      </c>
-      <c r="I10">
-        <f>SUM(D10:H10)</f>
-        <v>46</v>
-      </c>
-    </row>
     <row r="11" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B11">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C11">
         <v>50</v>
       </c>
       <c r="D11">
+        <v>11</v>
+      </c>
+      <c r="E11">
+        <v>17</v>
+      </c>
+      <c r="F11">
         <v>12</v>
       </c>
-      <c r="E11">
-        <v>13</v>
-      </c>
-      <c r="F11">
-        <v>11</v>
-      </c>
       <c r="G11">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="H11">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="I11">
         <f>SUM(D11:H11)</f>
-        <v>46</v>
+        <v>48</v>
       </c>
     </row>
     <row r="12" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B12">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C12">
         <v>50</v>
       </c>
       <c r="D12">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E12">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="F12">
         <v>9</v>
       </c>
       <c r="G12">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="H12">
         <v>4</v>
       </c>
       <c r="I12">
         <f>SUM(D12:H12)</f>
-        <v>44</v>
+        <v>46</v>
       </c>
     </row>
     <row r="13" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B13">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C13">
         <v>50</v>
@@ -687,79 +679,796 @@
         <v>12</v>
       </c>
       <c r="E13">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="F13">
+        <v>11</v>
+      </c>
+      <c r="G13">
         <v>8</v>
       </c>
-      <c r="G13">
-        <v>10</v>
-      </c>
       <c r="H13">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I13">
         <f>SUM(D13:H13)</f>
-        <v>42</v>
+        <v>46</v>
       </c>
     </row>
     <row r="14" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B14">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C14">
         <v>50</v>
       </c>
       <c r="D14">
+        <v>11</v>
+      </c>
+      <c r="E14">
+        <v>13</v>
+      </c>
+      <c r="F14">
+        <v>9</v>
+      </c>
+      <c r="G14">
         <v>7</v>
       </c>
-      <c r="E14">
-        <v>20</v>
-      </c>
-      <c r="F14">
-        <v>16</v>
-      </c>
-      <c r="G14">
-        <v>3</v>
-      </c>
       <c r="H14">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="I14">
         <f>SUM(D14:H14)</f>
+        <v>44</v>
+      </c>
+    </row>
+    <row r="15" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B15">
+        <v>9</v>
+      </c>
+      <c r="C15">
+        <v>50</v>
+      </c>
+      <c r="D15">
+        <v>12</v>
+      </c>
+      <c r="E15">
+        <v>9</v>
+      </c>
+      <c r="F15">
+        <v>8</v>
+      </c>
+      <c r="G15">
+        <v>10</v>
+      </c>
+      <c r="H15">
+        <v>3</v>
+      </c>
+      <c r="I15">
+        <f>SUM(D15:H15)</f>
+        <v>42</v>
+      </c>
+    </row>
+    <row r="16" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B16">
+        <v>10</v>
+      </c>
+      <c r="C16">
+        <v>50</v>
+      </c>
+      <c r="D16">
+        <v>7</v>
+      </c>
+      <c r="E16">
+        <v>20</v>
+      </c>
+      <c r="F16">
+        <v>16</v>
+      </c>
+      <c r="G16">
+        <v>3</v>
+      </c>
+      <c r="H16">
+        <v>2</v>
+      </c>
+      <c r="I16">
+        <f>SUM(D16:H16)</f>
         <v>48</v>
       </c>
     </row>
-    <row r="15" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="C15" t="s">
+    <row r="17" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="C17" t="s">
         <v>7</v>
       </c>
-      <c r="D15">
-        <f>AVERAGE(D5:D14)</f>
+      <c r="D17">
+        <f>AVERAGE(D7:D16)</f>
         <v>11</v>
       </c>
-      <c r="E15">
-        <f>AVERAGE(E5:E14)</f>
+      <c r="E17">
+        <f>AVERAGE(E7:E16)</f>
         <v>14.8</v>
       </c>
-      <c r="F15">
-        <f>AVERAGE(F5:F14)</f>
+      <c r="F17">
+        <f>AVERAGE(F7:F16)</f>
         <v>11</v>
       </c>
-      <c r="G15">
-        <f>AVERAGE(G5:G14)</f>
+      <c r="G17">
+        <f>AVERAGE(G7:G16)</f>
         <v>6.2</v>
       </c>
-      <c r="H15">
-        <f>AVERAGE(H5:H14)</f>
+      <c r="H17">
+        <f>AVERAGE(H7:H16)</f>
         <v>3.4</v>
       </c>
-      <c r="I15">
-        <f>AVERAGE(I5:I14)</f>
+      <c r="I17">
+        <f>AVERAGE(I7:I16)</f>
         <v>46.4</v>
       </c>
     </row>
+    <row r="19" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B19" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="20" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B20" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D20" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="E20" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="F20" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="G20" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="H20" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="I20" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="21" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B21">
+        <v>1</v>
+      </c>
+      <c r="C21">
+        <v>100</v>
+      </c>
+      <c r="D21">
+        <v>16</v>
+      </c>
+      <c r="E21">
+        <v>25</v>
+      </c>
+      <c r="F21">
+        <v>20</v>
+      </c>
+      <c r="G21">
+        <v>14</v>
+      </c>
+      <c r="H21">
+        <v>10</v>
+      </c>
+      <c r="I21">
+        <f>SUM(D21:H21)</f>
+        <v>85</v>
+      </c>
+    </row>
+    <row r="22" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B22">
+        <v>2</v>
+      </c>
+      <c r="C22">
+        <v>100</v>
+      </c>
+      <c r="D22">
+        <v>16</v>
+      </c>
+      <c r="E22">
+        <v>23</v>
+      </c>
+      <c r="F22">
+        <v>20</v>
+      </c>
+      <c r="G22">
+        <v>18</v>
+      </c>
+      <c r="H22">
+        <v>11</v>
+      </c>
+      <c r="I22">
+        <f t="shared" ref="I22:I31" si="1">SUM(D22:H22)</f>
+        <v>88</v>
+      </c>
+    </row>
+    <row r="23" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B23">
+        <v>3</v>
+      </c>
+      <c r="C23">
+        <v>100</v>
+      </c>
+      <c r="D23">
+        <v>18</v>
+      </c>
+      <c r="E23">
+        <v>20</v>
+      </c>
+      <c r="F23">
+        <v>22</v>
+      </c>
+      <c r="G23">
+        <v>17</v>
+      </c>
+      <c r="H23">
+        <v>8</v>
+      </c>
+      <c r="I23">
+        <f t="shared" si="1"/>
+        <v>85</v>
+      </c>
+    </row>
+    <row r="24" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B24">
+        <v>4</v>
+      </c>
+      <c r="C24">
+        <v>100</v>
+      </c>
+      <c r="D24">
+        <v>19</v>
+      </c>
+      <c r="E24">
+        <v>14</v>
+      </c>
+      <c r="F24">
+        <v>26</v>
+      </c>
+      <c r="G24">
+        <v>19</v>
+      </c>
+      <c r="H24">
+        <v>8</v>
+      </c>
+      <c r="I24">
+        <f t="shared" si="1"/>
+        <v>86</v>
+      </c>
+    </row>
+    <row r="25" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B25">
+        <v>5</v>
+      </c>
+      <c r="C25">
+        <v>100</v>
+      </c>
+      <c r="D25">
+        <v>11</v>
+      </c>
+      <c r="E25">
+        <v>21</v>
+      </c>
+      <c r="F25">
+        <v>10</v>
+      </c>
+      <c r="G25">
+        <v>19</v>
+      </c>
+      <c r="H25">
+        <v>22</v>
+      </c>
+      <c r="I25">
+        <f t="shared" si="1"/>
+        <v>83</v>
+      </c>
+    </row>
+    <row r="26" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B26">
+        <v>6</v>
+      </c>
+      <c r="C26">
+        <v>100</v>
+      </c>
+      <c r="D26">
+        <v>13</v>
+      </c>
+      <c r="E26">
+        <v>15</v>
+      </c>
+      <c r="F26">
+        <v>17</v>
+      </c>
+      <c r="G26">
+        <v>20</v>
+      </c>
+      <c r="H26">
+        <v>14</v>
+      </c>
+      <c r="I26">
+        <f t="shared" si="1"/>
+        <v>79</v>
+      </c>
+    </row>
+    <row r="27" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B27">
+        <v>7</v>
+      </c>
+      <c r="C27">
+        <v>100</v>
+      </c>
+      <c r="D27">
+        <v>14</v>
+      </c>
+      <c r="E27">
+        <v>15</v>
+      </c>
+      <c r="F27">
+        <v>18</v>
+      </c>
+      <c r="G27">
+        <v>23</v>
+      </c>
+      <c r="H27">
+        <v>15</v>
+      </c>
+      <c r="I27">
+        <f t="shared" si="1"/>
+        <v>85</v>
+      </c>
+    </row>
+    <row r="28" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B28">
+        <v>8</v>
+      </c>
+      <c r="C28">
+        <v>100</v>
+      </c>
+      <c r="D28">
+        <v>17</v>
+      </c>
+      <c r="E28">
+        <v>21</v>
+      </c>
+      <c r="F28">
+        <v>23</v>
+      </c>
+      <c r="G28">
+        <v>18</v>
+      </c>
+      <c r="H28">
+        <v>8</v>
+      </c>
+      <c r="I28">
+        <f t="shared" si="1"/>
+        <v>87</v>
+      </c>
+    </row>
+    <row r="29" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B29">
+        <v>9</v>
+      </c>
+      <c r="C29">
+        <v>100</v>
+      </c>
+      <c r="D29">
+        <v>13</v>
+      </c>
+      <c r="E29">
+        <v>17</v>
+      </c>
+      <c r="F29">
+        <v>17</v>
+      </c>
+      <c r="G29">
+        <v>18</v>
+      </c>
+      <c r="H29">
+        <v>12</v>
+      </c>
+      <c r="I29">
+        <f t="shared" si="1"/>
+        <v>77</v>
+      </c>
+    </row>
+    <row r="30" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B30">
+        <v>10</v>
+      </c>
+      <c r="C30">
+        <v>100</v>
+      </c>
+      <c r="D30">
+        <v>17</v>
+      </c>
+      <c r="E30">
+        <v>28</v>
+      </c>
+      <c r="F30">
+        <v>26</v>
+      </c>
+      <c r="G30">
+        <v>12</v>
+      </c>
+      <c r="H30">
+        <v>6</v>
+      </c>
+      <c r="I30">
+        <f t="shared" si="1"/>
+        <v>89</v>
+      </c>
+    </row>
+    <row r="31" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="C31" t="s">
+        <v>7</v>
+      </c>
+      <c r="D31">
+        <f>AVERAGE(D21:D30)</f>
+        <v>15.4</v>
+      </c>
+      <c r="E31">
+        <f>AVERAGE(E21:E30)</f>
+        <v>19.899999999999999</v>
+      </c>
+      <c r="F31">
+        <f>AVERAGE(F21:F30)</f>
+        <v>19.899999999999999</v>
+      </c>
+      <c r="G31">
+        <f>AVERAGE(G21:G30)</f>
+        <v>17.8</v>
+      </c>
+      <c r="H31">
+        <f>AVERAGE(H21:H30)</f>
+        <v>11.4</v>
+      </c>
+      <c r="I31">
+        <f t="shared" si="1"/>
+        <v>84.4</v>
+      </c>
+    </row>
+    <row r="33" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B33" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="34" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B34" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C34" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D34" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="E34" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="F34" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="G34" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="H34" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="I34" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="35" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B35">
+        <v>1</v>
+      </c>
+      <c r="C35">
+        <v>200</v>
+      </c>
+      <c r="D35">
+        <v>24</v>
+      </c>
+      <c r="E35">
+        <v>22</v>
+      </c>
+      <c r="F35">
+        <v>34</v>
+      </c>
+      <c r="G35">
+        <v>33</v>
+      </c>
+      <c r="H35">
+        <v>27</v>
+      </c>
+      <c r="I35">
+        <f>SUM(D35:H35)</f>
+        <v>140</v>
+      </c>
+    </row>
+    <row r="36" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B36">
+        <v>2</v>
+      </c>
+      <c r="C36">
+        <v>200</v>
+      </c>
+      <c r="D36">
+        <v>15</v>
+      </c>
+      <c r="E36">
+        <v>25</v>
+      </c>
+      <c r="F36">
+        <v>27</v>
+      </c>
+      <c r="G36">
+        <v>28</v>
+      </c>
+      <c r="H36">
+        <v>22</v>
+      </c>
+      <c r="I36">
+        <f t="shared" ref="I36:I44" si="2">SUM(D36:H36)</f>
+        <v>117</v>
+      </c>
+    </row>
+    <row r="37" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B37">
+        <v>3</v>
+      </c>
+      <c r="C37">
+        <v>200</v>
+      </c>
+      <c r="D37">
+        <v>20</v>
+      </c>
+      <c r="E37">
+        <v>19</v>
+      </c>
+      <c r="F37">
+        <v>35</v>
+      </c>
+      <c r="G37">
+        <v>30</v>
+      </c>
+      <c r="H37">
+        <v>26</v>
+      </c>
+      <c r="I37">
+        <f t="shared" si="2"/>
+        <v>130</v>
+      </c>
+    </row>
+    <row r="38" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B38">
+        <v>4</v>
+      </c>
+      <c r="C38">
+        <v>200</v>
+      </c>
+      <c r="D38">
+        <v>22</v>
+      </c>
+      <c r="E38">
+        <v>28</v>
+      </c>
+      <c r="F38">
+        <v>32</v>
+      </c>
+      <c r="G38">
+        <v>32</v>
+      </c>
+      <c r="H38">
+        <v>32</v>
+      </c>
+      <c r="I38">
+        <f t="shared" si="2"/>
+        <v>146</v>
+      </c>
+    </row>
+    <row r="39" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B39">
+        <v>5</v>
+      </c>
+      <c r="C39">
+        <v>200</v>
+      </c>
+      <c r="D39">
+        <v>18</v>
+      </c>
+      <c r="E39">
+        <v>33</v>
+      </c>
+      <c r="F39">
+        <v>28</v>
+      </c>
+      <c r="G39">
+        <v>27</v>
+      </c>
+      <c r="H39">
+        <v>31</v>
+      </c>
+      <c r="I39">
+        <f t="shared" si="2"/>
+        <v>137</v>
+      </c>
+    </row>
+    <row r="40" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B40">
+        <v>6</v>
+      </c>
+      <c r="C40">
+        <v>200</v>
+      </c>
+      <c r="D40">
+        <v>18</v>
+      </c>
+      <c r="E40">
+        <v>23</v>
+      </c>
+      <c r="F40">
+        <v>28</v>
+      </c>
+      <c r="G40">
+        <v>34</v>
+      </c>
+      <c r="H40">
+        <v>23</v>
+      </c>
+      <c r="I40">
+        <f t="shared" si="2"/>
+        <v>126</v>
+      </c>
+    </row>
+    <row r="41" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B41">
+        <v>7</v>
+      </c>
+      <c r="C41">
+        <v>200</v>
+      </c>
+      <c r="D41">
+        <v>17</v>
+      </c>
+      <c r="E41">
+        <v>19</v>
+      </c>
+      <c r="F41">
+        <v>20</v>
+      </c>
+      <c r="G41">
+        <v>26</v>
+      </c>
+      <c r="H41">
+        <v>32</v>
+      </c>
+      <c r="I41">
+        <f t="shared" si="2"/>
+        <v>114</v>
+      </c>
+    </row>
+    <row r="42" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B42">
+        <v>8</v>
+      </c>
+      <c r="C42">
+        <v>200</v>
+      </c>
+      <c r="D42">
+        <v>22</v>
+      </c>
+      <c r="E42">
+        <v>31</v>
+      </c>
+      <c r="F42">
+        <v>34</v>
+      </c>
+      <c r="G42">
+        <v>43</v>
+      </c>
+      <c r="H42">
+        <v>35</v>
+      </c>
+      <c r="I42">
+        <f t="shared" si="2"/>
+        <v>165</v>
+      </c>
+    </row>
+    <row r="43" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B43">
+        <v>9</v>
+      </c>
+      <c r="C43">
+        <v>200</v>
+      </c>
+      <c r="D43">
+        <v>17</v>
+      </c>
+      <c r="E43">
+        <v>25</v>
+      </c>
+      <c r="F43">
+        <v>29</v>
+      </c>
+      <c r="G43">
+        <v>38</v>
+      </c>
+      <c r="H43">
+        <v>27</v>
+      </c>
+      <c r="I43">
+        <f t="shared" si="2"/>
+        <v>136</v>
+      </c>
+    </row>
+    <row r="44" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B44">
+        <v>10</v>
+      </c>
+      <c r="C44">
+        <v>200</v>
+      </c>
+      <c r="D44">
+        <v>21</v>
+      </c>
+      <c r="E44">
+        <v>24</v>
+      </c>
+      <c r="F44">
+        <v>36</v>
+      </c>
+      <c r="G44">
+        <v>28</v>
+      </c>
+      <c r="H44">
+        <v>24</v>
+      </c>
+      <c r="I44">
+        <f t="shared" si="2"/>
+        <v>133</v>
+      </c>
+    </row>
+    <row r="45" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="C45" t="s">
+        <v>7</v>
+      </c>
+      <c r="D45">
+        <f>AVERAGE(D35:D44)</f>
+        <v>19.399999999999999</v>
+      </c>
+      <c r="E45">
+        <f>AVERAGE(E35:E44)</f>
+        <v>24.9</v>
+      </c>
+      <c r="F45">
+        <f>AVERAGE(F35:F44)</f>
+        <v>30.3</v>
+      </c>
+      <c r="G45">
+        <f>AVERAGE(G35:G44)</f>
+        <v>31.9</v>
+      </c>
+      <c r="H45">
+        <f>AVERAGE(H35:H44)</f>
+        <v>27.9</v>
+      </c>
+      <c r="I45">
+        <f t="shared" ref="I36:I45" si="3">SUM(D45:H45)</f>
+        <v>134.4</v>
+      </c>
+    </row>
   </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="B2:C3"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/Data.xlsx
+++ b/Data.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/nejcjenko/Documents/FP/Projekt/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/nejcjenko/Documents/GitHub/Pareto-fronte-v-vec-dimenzijah/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{932A50F9-525E-B54D-942A-1683E491EE62}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{08223955-2D01-BB4A-9964-C072E3A8B818}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="27640" windowHeight="15680" xr2:uid="{70F57464-07EE-6D44-894E-A2427728D4C0}"/>
   </bookViews>
@@ -127,10 +127,10 @@
   <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -447,8 +447,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FE1C919C-7229-7041-875E-3BE3CDC2D46A}">
   <dimension ref="B2:I45"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="J34" sqref="J34"/>
+    <sheetView tabSelected="1" topLeftCell="A12" workbookViewId="0">
+      <selection activeCell="G52" sqref="G52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -460,20 +460,20 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:9" ht="16" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B2" s="2" t="s">
+      <c r="B2" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="C2" s="2"/>
-      <c r="D2" s="3"/>
-      <c r="E2" s="3"/>
-      <c r="F2" s="3"/>
+      <c r="C2" s="3"/>
+      <c r="D2" s="2"/>
+      <c r="E2" s="2"/>
+      <c r="F2" s="2"/>
     </row>
     <row r="3" spans="2:9" ht="16" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B3" s="2"/>
-      <c r="C3" s="2"/>
-      <c r="D3" s="3"/>
-      <c r="E3" s="3"/>
-      <c r="F3" s="3"/>
+      <c r="B3" s="3"/>
+      <c r="C3" s="3"/>
+      <c r="D3" s="2"/>
+      <c r="E3" s="2"/>
+      <c r="F3" s="2"/>
     </row>
     <row r="5" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B5" s="1" t="s">
@@ -556,7 +556,7 @@
         <v>4</v>
       </c>
       <c r="I8">
-        <f t="shared" ref="I8:I16" si="0">SUM(D8:H8)</f>
+        <f t="shared" ref="I8:I10" si="0">SUM(D8:H8)</f>
         <v>47</v>
       </c>
     </row>
@@ -637,7 +637,7 @@
         <v>4</v>
       </c>
       <c r="I11">
-        <f>SUM(D11:H11)</f>
+        <f t="shared" ref="I11:I16" si="1">SUM(D11:H11)</f>
         <v>48</v>
       </c>
     </row>
@@ -664,7 +664,7 @@
         <v>4</v>
       </c>
       <c r="I12">
-        <f>SUM(D12:H12)</f>
+        <f t="shared" si="1"/>
         <v>46</v>
       </c>
     </row>
@@ -691,7 +691,7 @@
         <v>2</v>
       </c>
       <c r="I13">
-        <f>SUM(D13:H13)</f>
+        <f t="shared" si="1"/>
         <v>46</v>
       </c>
     </row>
@@ -718,7 +718,7 @@
         <v>4</v>
       </c>
       <c r="I14">
-        <f>SUM(D14:H14)</f>
+        <f t="shared" si="1"/>
         <v>44</v>
       </c>
     </row>
@@ -745,7 +745,7 @@
         <v>3</v>
       </c>
       <c r="I15">
-        <f>SUM(D15:H15)</f>
+        <f t="shared" si="1"/>
         <v>42</v>
       </c>
     </row>
@@ -772,7 +772,7 @@
         <v>2</v>
       </c>
       <c r="I16">
-        <f>SUM(D16:H16)</f>
+        <f t="shared" si="1"/>
         <v>48</v>
       </c>
     </row>
@@ -781,27 +781,27 @@
         <v>7</v>
       </c>
       <c r="D17">
-        <f>AVERAGE(D7:D16)</f>
+        <f t="shared" ref="D17:I17" si="2">AVERAGE(D7:D16)</f>
         <v>11</v>
       </c>
       <c r="E17">
-        <f>AVERAGE(E7:E16)</f>
+        <f t="shared" si="2"/>
         <v>14.8</v>
       </c>
       <c r="F17">
-        <f>AVERAGE(F7:F16)</f>
+        <f t="shared" si="2"/>
         <v>11</v>
       </c>
       <c r="G17">
-        <f>AVERAGE(G7:G16)</f>
+        <f t="shared" si="2"/>
         <v>6.2</v>
       </c>
       <c r="H17">
-        <f>AVERAGE(H7:H16)</f>
+        <f t="shared" si="2"/>
         <v>3.4</v>
       </c>
       <c r="I17">
-        <f>AVERAGE(I7:I16)</f>
+        <f t="shared" si="2"/>
         <v>46.4</v>
       </c>
     </row>
@@ -886,7 +886,7 @@
         <v>11</v>
       </c>
       <c r="I22">
-        <f t="shared" ref="I22:I31" si="1">SUM(D22:H22)</f>
+        <f t="shared" ref="I22:I31" si="3">SUM(D22:H22)</f>
         <v>88</v>
       </c>
     </row>
@@ -913,7 +913,7 @@
         <v>8</v>
       </c>
       <c r="I23">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>85</v>
       </c>
     </row>
@@ -940,7 +940,7 @@
         <v>8</v>
       </c>
       <c r="I24">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>86</v>
       </c>
     </row>
@@ -967,7 +967,7 @@
         <v>22</v>
       </c>
       <c r="I25">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>83</v>
       </c>
     </row>
@@ -994,7 +994,7 @@
         <v>14</v>
       </c>
       <c r="I26">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>79</v>
       </c>
     </row>
@@ -1021,7 +1021,7 @@
         <v>15</v>
       </c>
       <c r="I27">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>85</v>
       </c>
     </row>
@@ -1048,7 +1048,7 @@
         <v>8</v>
       </c>
       <c r="I28">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>87</v>
       </c>
     </row>
@@ -1075,7 +1075,7 @@
         <v>12</v>
       </c>
       <c r="I29">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>77</v>
       </c>
     </row>
@@ -1102,7 +1102,7 @@
         <v>6</v>
       </c>
       <c r="I30">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>89</v>
       </c>
     </row>
@@ -1131,7 +1131,7 @@
         <v>11.4</v>
       </c>
       <c r="I31">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>84.4</v>
       </c>
     </row>
@@ -1216,7 +1216,7 @@
         <v>22</v>
       </c>
       <c r="I36">
-        <f t="shared" ref="I36:I44" si="2">SUM(D36:H36)</f>
+        <f t="shared" ref="I36:I44" si="4">SUM(D36:H36)</f>
         <v>117</v>
       </c>
     </row>
@@ -1243,7 +1243,7 @@
         <v>26</v>
       </c>
       <c r="I37">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>130</v>
       </c>
     </row>
@@ -1270,7 +1270,7 @@
         <v>32</v>
       </c>
       <c r="I38">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>146</v>
       </c>
     </row>
@@ -1297,7 +1297,7 @@
         <v>31</v>
       </c>
       <c r="I39">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>137</v>
       </c>
     </row>
@@ -1324,7 +1324,7 @@
         <v>23</v>
       </c>
       <c r="I40">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>126</v>
       </c>
     </row>
@@ -1351,7 +1351,7 @@
         <v>32</v>
       </c>
       <c r="I41">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>114</v>
       </c>
     </row>
@@ -1378,7 +1378,7 @@
         <v>35</v>
       </c>
       <c r="I42">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>165</v>
       </c>
     </row>
@@ -1405,7 +1405,7 @@
         <v>27</v>
       </c>
       <c r="I43">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>136</v>
       </c>
     </row>
@@ -1432,7 +1432,7 @@
         <v>24</v>
       </c>
       <c r="I44">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>133</v>
       </c>
     </row>
@@ -1461,7 +1461,7 @@
         <v>27.9</v>
       </c>
       <c r="I45">
-        <f t="shared" ref="I36:I45" si="3">SUM(D45:H45)</f>
+        <f t="shared" ref="I45" si="5">SUM(D45:H45)</f>
         <v>134.4</v>
       </c>
     </row>

--- a/Data.xlsx
+++ b/Data.xlsx
@@ -8,12 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/nejcjenko/Documents/GitHub/Pareto-fronte-v-vec-dimenzijah/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{08223955-2D01-BB4A-9964-C072E3A8B818}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D7B6A7F5-AC66-154C-ADDB-C6B19A850BB7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="27640" windowHeight="15680" xr2:uid="{70F57464-07EE-6D44-894E-A2427728D4C0}"/>
   </bookViews>
   <sheets>
-    <sheet name="3 dimenzije" sheetId="1" r:id="rId1"/>
+    <sheet name="2 dimenziji" sheetId="2" r:id="rId1"/>
+    <sheet name="3 dimenzije" sheetId="1" r:id="rId2"/>
+    <sheet name="4 dimenzije" sheetId="3" r:id="rId3"/>
+    <sheet name="5 dimenzij" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -34,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="124" uniqueCount="18">
   <si>
     <t>1. pareto fornta</t>
   </si>
@@ -73,6 +76,21 @@
   </si>
   <si>
     <t>200 TOČK</t>
+  </si>
+  <si>
+    <t>2 dimenziji</t>
+  </si>
+  <si>
+    <t>Povprečje za 100 točk</t>
+  </si>
+  <si>
+    <t>Povprečje za 200 točk</t>
+  </si>
+  <si>
+    <t>4 dimenzije</t>
+  </si>
+  <si>
+    <t>5 dimenzij</t>
   </si>
 </sst>
 </file>
@@ -444,11 +462,740 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3030A96B-6BCE-A34B-9F15-40CDBF632279}">
+  <dimension ref="B2:I45"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="K13" sqref="K13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="3" max="3" width="19.5" customWidth="1"/>
+    <col min="4" max="8" width="14.6640625" customWidth="1"/>
+    <col min="9" max="9" width="28.33203125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:9" ht="34" x14ac:dyDescent="0.4">
+      <c r="B2" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="C2" s="3"/>
+      <c r="D2" s="2"/>
+      <c r="E2" s="2"/>
+      <c r="F2" s="2"/>
+    </row>
+    <row r="3" spans="2:9" ht="34" x14ac:dyDescent="0.4">
+      <c r="B3" s="3"/>
+      <c r="C3" s="3"/>
+      <c r="D3" s="2"/>
+      <c r="E3" s="2"/>
+      <c r="F3" s="2"/>
+    </row>
+    <row r="5" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B5" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B6" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="G6" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="H6" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="I6" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="7" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B7">
+        <v>1</v>
+      </c>
+      <c r="C7">
+        <v>50</v>
+      </c>
+      <c r="D7">
+        <v>6</v>
+      </c>
+      <c r="E7">
+        <v>10</v>
+      </c>
+      <c r="F7">
+        <v>7</v>
+      </c>
+      <c r="G7">
+        <v>6</v>
+      </c>
+      <c r="H7">
+        <v>7</v>
+      </c>
+      <c r="I7">
+        <f>SUM(D7:H7)</f>
+        <v>36</v>
+      </c>
+    </row>
+    <row r="8" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B8">
+        <v>2</v>
+      </c>
+      <c r="C8">
+        <v>50</v>
+      </c>
+      <c r="D8">
+        <v>8</v>
+      </c>
+      <c r="E8">
+        <v>7</v>
+      </c>
+      <c r="F8">
+        <v>7</v>
+      </c>
+      <c r="G8">
+        <v>5</v>
+      </c>
+      <c r="H8">
+        <v>6</v>
+      </c>
+      <c r="I8">
+        <f t="shared" ref="I8:I16" si="0">SUM(D8:H8)</f>
+        <v>33</v>
+      </c>
+    </row>
+    <row r="9" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B9">
+        <v>3</v>
+      </c>
+      <c r="C9">
+        <v>50</v>
+      </c>
+      <c r="D9">
+        <v>7</v>
+      </c>
+      <c r="E9">
+        <v>5</v>
+      </c>
+      <c r="F9">
+        <v>6</v>
+      </c>
+      <c r="G9">
+        <v>8</v>
+      </c>
+      <c r="H9">
+        <v>8</v>
+      </c>
+      <c r="I9">
+        <f t="shared" si="0"/>
+        <v>34</v>
+      </c>
+    </row>
+    <row r="10" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B10">
+        <v>4</v>
+      </c>
+      <c r="C10">
+        <v>50</v>
+      </c>
+      <c r="D10">
+        <v>6</v>
+      </c>
+      <c r="E10">
+        <v>7</v>
+      </c>
+      <c r="F10">
+        <v>7</v>
+      </c>
+      <c r="G10">
+        <v>9</v>
+      </c>
+      <c r="H10">
+        <v>6</v>
+      </c>
+      <c r="I10">
+        <f t="shared" si="0"/>
+        <v>35</v>
+      </c>
+    </row>
+    <row r="11" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B11">
+        <v>5</v>
+      </c>
+      <c r="C11">
+        <v>50</v>
+      </c>
+      <c r="D11">
+        <v>6</v>
+      </c>
+      <c r="E11">
+        <v>6</v>
+      </c>
+      <c r="F11">
+        <v>9</v>
+      </c>
+      <c r="G11">
+        <v>11</v>
+      </c>
+      <c r="H11">
+        <v>7</v>
+      </c>
+      <c r="I11">
+        <f t="shared" si="0"/>
+        <v>39</v>
+      </c>
+    </row>
+    <row r="12" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B12">
+        <v>6</v>
+      </c>
+      <c r="C12">
+        <v>50</v>
+      </c>
+      <c r="D12">
+        <v>6</v>
+      </c>
+      <c r="E12">
+        <v>9</v>
+      </c>
+      <c r="F12">
+        <v>4</v>
+      </c>
+      <c r="G12">
+        <v>8</v>
+      </c>
+      <c r="H12">
+        <v>9</v>
+      </c>
+      <c r="I12">
+        <f t="shared" si="0"/>
+        <v>36</v>
+      </c>
+    </row>
+    <row r="13" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B13">
+        <v>7</v>
+      </c>
+      <c r="C13">
+        <v>50</v>
+      </c>
+      <c r="D13">
+        <v>5</v>
+      </c>
+      <c r="E13">
+        <v>7</v>
+      </c>
+      <c r="F13">
+        <v>7</v>
+      </c>
+      <c r="G13">
+        <v>7</v>
+      </c>
+      <c r="H13">
+        <v>4</v>
+      </c>
+      <c r="I13">
+        <f t="shared" si="0"/>
+        <v>30</v>
+      </c>
+    </row>
+    <row r="14" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B14">
+        <v>8</v>
+      </c>
+      <c r="C14">
+        <v>50</v>
+      </c>
+      <c r="D14">
+        <v>8</v>
+      </c>
+      <c r="E14">
+        <v>11</v>
+      </c>
+      <c r="F14">
+        <v>2</v>
+      </c>
+      <c r="G14">
+        <v>9</v>
+      </c>
+      <c r="H14">
+        <v>6</v>
+      </c>
+      <c r="I14">
+        <f t="shared" si="0"/>
+        <v>36</v>
+      </c>
+    </row>
+    <row r="15" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B15">
+        <v>9</v>
+      </c>
+      <c r="C15">
+        <v>50</v>
+      </c>
+      <c r="D15">
+        <v>6</v>
+      </c>
+      <c r="E15">
+        <v>6</v>
+      </c>
+      <c r="F15">
+        <v>9</v>
+      </c>
+      <c r="G15">
+        <v>9</v>
+      </c>
+      <c r="H15">
+        <v>6</v>
+      </c>
+      <c r="I15">
+        <f t="shared" si="0"/>
+        <v>36</v>
+      </c>
+    </row>
+    <row r="16" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B16">
+        <v>10</v>
+      </c>
+      <c r="C16">
+        <v>50</v>
+      </c>
+      <c r="D16">
+        <v>7</v>
+      </c>
+      <c r="E16">
+        <v>7</v>
+      </c>
+      <c r="F16">
+        <v>10</v>
+      </c>
+      <c r="G16">
+        <v>8</v>
+      </c>
+      <c r="H16">
+        <v>6</v>
+      </c>
+      <c r="I16">
+        <f t="shared" si="0"/>
+        <v>38</v>
+      </c>
+    </row>
+    <row r="17" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="C17" t="s">
+        <v>7</v>
+      </c>
+      <c r="D17">
+        <f t="shared" ref="D17:I17" si="1">AVERAGE(D7:D16)</f>
+        <v>6.5</v>
+      </c>
+      <c r="E17">
+        <f t="shared" si="1"/>
+        <v>7.5</v>
+      </c>
+      <c r="F17">
+        <f t="shared" si="1"/>
+        <v>6.8</v>
+      </c>
+      <c r="G17">
+        <f t="shared" si="1"/>
+        <v>8</v>
+      </c>
+      <c r="H17">
+        <f t="shared" si="1"/>
+        <v>6.5</v>
+      </c>
+      <c r="I17">
+        <f t="shared" si="1"/>
+        <v>35.299999999999997</v>
+      </c>
+    </row>
+    <row r="19" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B19" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="20" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B20" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D20" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="E20" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="F20" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="G20" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="H20" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="I20" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="21" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B21">
+        <v>1</v>
+      </c>
+      <c r="C21">
+        <v>100</v>
+      </c>
+      <c r="I21">
+        <f>SUM(D21:H21)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B22">
+        <v>2</v>
+      </c>
+      <c r="C22">
+        <v>100</v>
+      </c>
+      <c r="I22">
+        <f t="shared" ref="I22:I31" si="2">SUM(D22:H22)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B23">
+        <v>3</v>
+      </c>
+      <c r="C23">
+        <v>100</v>
+      </c>
+      <c r="I23">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B24">
+        <v>4</v>
+      </c>
+      <c r="C24">
+        <v>100</v>
+      </c>
+      <c r="I24">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B25">
+        <v>5</v>
+      </c>
+      <c r="C25">
+        <v>100</v>
+      </c>
+      <c r="I25">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B26">
+        <v>6</v>
+      </c>
+      <c r="C26">
+        <v>100</v>
+      </c>
+      <c r="I26">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B27">
+        <v>7</v>
+      </c>
+      <c r="C27">
+        <v>100</v>
+      </c>
+      <c r="I27">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B28">
+        <v>8</v>
+      </c>
+      <c r="C28">
+        <v>100</v>
+      </c>
+      <c r="I28">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B29">
+        <v>9</v>
+      </c>
+      <c r="C29">
+        <v>100</v>
+      </c>
+      <c r="I29">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B30">
+        <v>10</v>
+      </c>
+      <c r="C30">
+        <v>100</v>
+      </c>
+      <c r="I30">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="C31" t="s">
+        <v>14</v>
+      </c>
+      <c r="D31" t="e">
+        <f>AVERAGE(D21:D30)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="E31" t="e">
+        <f>AVERAGE(E21:E30)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="F31" t="e">
+        <f>AVERAGE(F21:F30)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="G31" t="e">
+        <f>AVERAGE(G21:G30)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="H31" t="e">
+        <f>AVERAGE(H21:H30)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="I31" t="e">
+        <f t="shared" si="2"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="33" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B33" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="34" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B34" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C34" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D34" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="E34" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="F34" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="G34" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="H34" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="I34" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="35" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B35">
+        <v>1</v>
+      </c>
+      <c r="C35">
+        <v>200</v>
+      </c>
+      <c r="I35">
+        <f>SUM(D35:H35)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B36">
+        <v>2</v>
+      </c>
+      <c r="C36">
+        <v>200</v>
+      </c>
+      <c r="I36">
+        <f t="shared" ref="I36:I45" si="3">SUM(D36:H36)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B37">
+        <v>3</v>
+      </c>
+      <c r="C37">
+        <v>200</v>
+      </c>
+      <c r="I37">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B38">
+        <v>4</v>
+      </c>
+      <c r="C38">
+        <v>200</v>
+      </c>
+      <c r="I38">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B39">
+        <v>5</v>
+      </c>
+      <c r="C39">
+        <v>200</v>
+      </c>
+      <c r="I39">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B40">
+        <v>6</v>
+      </c>
+      <c r="C40">
+        <v>200</v>
+      </c>
+      <c r="I40">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B41">
+        <v>7</v>
+      </c>
+      <c r="C41">
+        <v>200</v>
+      </c>
+      <c r="I41">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B42">
+        <v>8</v>
+      </c>
+      <c r="C42">
+        <v>200</v>
+      </c>
+      <c r="I42">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B43">
+        <v>9</v>
+      </c>
+      <c r="C43">
+        <v>200</v>
+      </c>
+      <c r="I43">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B44">
+        <v>10</v>
+      </c>
+      <c r="C44">
+        <v>200</v>
+      </c>
+      <c r="I44">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="C45" t="s">
+        <v>15</v>
+      </c>
+      <c r="D45" t="e">
+        <f>AVERAGE(D35:D44)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="E45" t="e">
+        <f>AVERAGE(E35:E44)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="F45" t="e">
+        <f>AVERAGE(F35:F44)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="G45" t="e">
+        <f>AVERAGE(G35:G44)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="H45" t="e">
+        <f>AVERAGE(H35:H44)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="I45" t="e">
+        <f t="shared" si="3"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="B2:C3"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FE1C919C-7229-7041-875E-3BE3CDC2D46A}">
   <dimension ref="B2:I45"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A12" workbookViewId="0">
-      <selection activeCell="G52" sqref="G52"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B2" sqref="B2:I45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1471,4 +2218,1162 @@
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{13CB01BC-5CEE-CD43-8711-39682CA26EF0}">
+  <dimension ref="B2:I45"/>
+  <sheetViews>
+    <sheetView topLeftCell="A28" workbookViewId="0">
+      <selection activeCell="I45" sqref="B2:I45"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="3" max="3" width="19.5" customWidth="1"/>
+    <col min="4" max="8" width="14.5" customWidth="1"/>
+    <col min="9" max="9" width="28.33203125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:9" ht="34" x14ac:dyDescent="0.4">
+      <c r="B2" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="C2" s="3"/>
+      <c r="D2" s="2"/>
+      <c r="E2" s="2"/>
+      <c r="F2" s="2"/>
+    </row>
+    <row r="3" spans="2:9" ht="34" x14ac:dyDescent="0.4">
+      <c r="B3" s="3"/>
+      <c r="C3" s="3"/>
+      <c r="D3" s="2"/>
+      <c r="E3" s="2"/>
+      <c r="F3" s="2"/>
+    </row>
+    <row r="5" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B5" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B6" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="G6" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="H6" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="I6" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="7" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B7">
+        <v>1</v>
+      </c>
+      <c r="C7">
+        <v>50</v>
+      </c>
+      <c r="I7">
+        <f>SUM(D7:H7)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B8">
+        <v>2</v>
+      </c>
+      <c r="C8">
+        <v>50</v>
+      </c>
+      <c r="I8">
+        <f t="shared" ref="I8:I16" si="0">SUM(D8:H8)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B9">
+        <v>3</v>
+      </c>
+      <c r="C9">
+        <v>50</v>
+      </c>
+      <c r="I9">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B10">
+        <v>4</v>
+      </c>
+      <c r="C10">
+        <v>50</v>
+      </c>
+      <c r="I10">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B11">
+        <v>5</v>
+      </c>
+      <c r="C11">
+        <v>50</v>
+      </c>
+      <c r="I11">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B12">
+        <v>6</v>
+      </c>
+      <c r="C12">
+        <v>50</v>
+      </c>
+      <c r="I12">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B13">
+        <v>7</v>
+      </c>
+      <c r="C13">
+        <v>50</v>
+      </c>
+      <c r="I13">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B14">
+        <v>8</v>
+      </c>
+      <c r="C14">
+        <v>50</v>
+      </c>
+      <c r="I14">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B15">
+        <v>9</v>
+      </c>
+      <c r="C15">
+        <v>50</v>
+      </c>
+      <c r="I15">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B16">
+        <v>10</v>
+      </c>
+      <c r="C16">
+        <v>50</v>
+      </c>
+      <c r="I16">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="C17" t="s">
+        <v>7</v>
+      </c>
+      <c r="D17" t="e">
+        <f t="shared" ref="D17:I17" si="1">AVERAGE(D7:D16)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="E17" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="F17" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="G17" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="H17" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="I17">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B19" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="20" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B20" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D20" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="E20" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="F20" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="G20" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="H20" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="I20" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="21" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B21">
+        <v>1</v>
+      </c>
+      <c r="C21">
+        <v>100</v>
+      </c>
+      <c r="I21">
+        <f>SUM(D21:H21)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B22">
+        <v>2</v>
+      </c>
+      <c r="C22">
+        <v>100</v>
+      </c>
+      <c r="I22">
+        <f t="shared" ref="I22:I31" si="2">SUM(D22:H22)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B23">
+        <v>3</v>
+      </c>
+      <c r="C23">
+        <v>100</v>
+      </c>
+      <c r="I23">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B24">
+        <v>4</v>
+      </c>
+      <c r="C24">
+        <v>100</v>
+      </c>
+      <c r="I24">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B25">
+        <v>5</v>
+      </c>
+      <c r="C25">
+        <v>100</v>
+      </c>
+      <c r="I25">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B26">
+        <v>6</v>
+      </c>
+      <c r="C26">
+        <v>100</v>
+      </c>
+      <c r="I26">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B27">
+        <v>7</v>
+      </c>
+      <c r="C27">
+        <v>100</v>
+      </c>
+      <c r="I27">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B28">
+        <v>8</v>
+      </c>
+      <c r="C28">
+        <v>100</v>
+      </c>
+      <c r="I28">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B29">
+        <v>9</v>
+      </c>
+      <c r="C29">
+        <v>100</v>
+      </c>
+      <c r="I29">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B30">
+        <v>10</v>
+      </c>
+      <c r="C30">
+        <v>100</v>
+      </c>
+      <c r="I30">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="C31" t="s">
+        <v>14</v>
+      </c>
+      <c r="D31" t="e">
+        <f>AVERAGE(D21:D30)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="E31" t="e">
+        <f>AVERAGE(E21:E30)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="F31" t="e">
+        <f>AVERAGE(F21:F30)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="G31" t="e">
+        <f>AVERAGE(G21:G30)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="H31" t="e">
+        <f>AVERAGE(H21:H30)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="I31" t="e">
+        <f t="shared" si="2"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="33" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B33" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="34" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B34" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C34" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D34" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="E34" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="F34" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="G34" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="H34" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="I34" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="35" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B35">
+        <v>1</v>
+      </c>
+      <c r="C35">
+        <v>200</v>
+      </c>
+      <c r="I35">
+        <f>SUM(D35:H35)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B36">
+        <v>2</v>
+      </c>
+      <c r="C36">
+        <v>200</v>
+      </c>
+      <c r="I36">
+        <f t="shared" ref="I36:I45" si="3">SUM(D36:H36)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B37">
+        <v>3</v>
+      </c>
+      <c r="C37">
+        <v>200</v>
+      </c>
+      <c r="I37">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B38">
+        <v>4</v>
+      </c>
+      <c r="C38">
+        <v>200</v>
+      </c>
+      <c r="I38">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B39">
+        <v>5</v>
+      </c>
+      <c r="C39">
+        <v>200</v>
+      </c>
+      <c r="I39">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B40">
+        <v>6</v>
+      </c>
+      <c r="C40">
+        <v>200</v>
+      </c>
+      <c r="I40">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B41">
+        <v>7</v>
+      </c>
+      <c r="C41">
+        <v>200</v>
+      </c>
+      <c r="I41">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B42">
+        <v>8</v>
+      </c>
+      <c r="C42">
+        <v>200</v>
+      </c>
+      <c r="I42">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B43">
+        <v>9</v>
+      </c>
+      <c r="C43">
+        <v>200</v>
+      </c>
+      <c r="I43">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B44">
+        <v>10</v>
+      </c>
+      <c r="C44">
+        <v>200</v>
+      </c>
+      <c r="I44">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="C45" t="s">
+        <v>15</v>
+      </c>
+      <c r="D45" t="e">
+        <f>AVERAGE(D35:D44)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="E45" t="e">
+        <f>AVERAGE(E35:E44)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="F45" t="e">
+        <f>AVERAGE(F35:F44)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="G45" t="e">
+        <f>AVERAGE(G35:G44)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="H45" t="e">
+        <f>AVERAGE(H35:H44)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="I45" t="e">
+        <f t="shared" si="3"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="B2:C3"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E6466265-9058-6240-8DF8-1E7AB3B7A55E}">
+  <dimension ref="B2:I45"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E2" sqref="E2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="3" max="3" width="19.5" customWidth="1"/>
+    <col min="4" max="8" width="15" customWidth="1"/>
+    <col min="9" max="9" width="27.6640625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:9" ht="34" x14ac:dyDescent="0.4">
+      <c r="B2" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="C2" s="3"/>
+      <c r="D2" s="2"/>
+      <c r="E2" s="2"/>
+      <c r="F2" s="2"/>
+    </row>
+    <row r="3" spans="2:9" ht="34" x14ac:dyDescent="0.4">
+      <c r="B3" s="3"/>
+      <c r="C3" s="3"/>
+      <c r="D3" s="2"/>
+      <c r="E3" s="2"/>
+      <c r="F3" s="2"/>
+    </row>
+    <row r="5" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B5" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B6" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="G6" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="H6" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="I6" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="7" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B7">
+        <v>1</v>
+      </c>
+      <c r="C7">
+        <v>50</v>
+      </c>
+      <c r="I7">
+        <f>SUM(D7:H7)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B8">
+        <v>2</v>
+      </c>
+      <c r="C8">
+        <v>50</v>
+      </c>
+      <c r="I8">
+        <f t="shared" ref="I8:I16" si="0">SUM(D8:H8)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B9">
+        <v>3</v>
+      </c>
+      <c r="C9">
+        <v>50</v>
+      </c>
+      <c r="I9">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B10">
+        <v>4</v>
+      </c>
+      <c r="C10">
+        <v>50</v>
+      </c>
+      <c r="I10">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B11">
+        <v>5</v>
+      </c>
+      <c r="C11">
+        <v>50</v>
+      </c>
+      <c r="I11">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B12">
+        <v>6</v>
+      </c>
+      <c r="C12">
+        <v>50</v>
+      </c>
+      <c r="I12">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B13">
+        <v>7</v>
+      </c>
+      <c r="C13">
+        <v>50</v>
+      </c>
+      <c r="I13">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B14">
+        <v>8</v>
+      </c>
+      <c r="C14">
+        <v>50</v>
+      </c>
+      <c r="I14">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B15">
+        <v>9</v>
+      </c>
+      <c r="C15">
+        <v>50</v>
+      </c>
+      <c r="I15">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B16">
+        <v>10</v>
+      </c>
+      <c r="C16">
+        <v>50</v>
+      </c>
+      <c r="I16">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="C17" t="s">
+        <v>7</v>
+      </c>
+      <c r="D17" t="e">
+        <f t="shared" ref="D17:I17" si="1">AVERAGE(D7:D16)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="E17" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="F17" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="G17" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="H17" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="I17">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B19" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="20" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B20" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D20" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="E20" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="F20" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="G20" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="H20" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="I20" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="21" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B21">
+        <v>1</v>
+      </c>
+      <c r="C21">
+        <v>100</v>
+      </c>
+      <c r="I21">
+        <f>SUM(D21:H21)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B22">
+        <v>2</v>
+      </c>
+      <c r="C22">
+        <v>100</v>
+      </c>
+      <c r="I22">
+        <f t="shared" ref="I22:I31" si="2">SUM(D22:H22)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B23">
+        <v>3</v>
+      </c>
+      <c r="C23">
+        <v>100</v>
+      </c>
+      <c r="I23">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B24">
+        <v>4</v>
+      </c>
+      <c r="C24">
+        <v>100</v>
+      </c>
+      <c r="I24">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B25">
+        <v>5</v>
+      </c>
+      <c r="C25">
+        <v>100</v>
+      </c>
+      <c r="I25">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B26">
+        <v>6</v>
+      </c>
+      <c r="C26">
+        <v>100</v>
+      </c>
+      <c r="I26">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B27">
+        <v>7</v>
+      </c>
+      <c r="C27">
+        <v>100</v>
+      </c>
+      <c r="I27">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B28">
+        <v>8</v>
+      </c>
+      <c r="C28">
+        <v>100</v>
+      </c>
+      <c r="I28">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B29">
+        <v>9</v>
+      </c>
+      <c r="C29">
+        <v>100</v>
+      </c>
+      <c r="I29">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B30">
+        <v>10</v>
+      </c>
+      <c r="C30">
+        <v>100</v>
+      </c>
+      <c r="I30">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="C31" t="s">
+        <v>14</v>
+      </c>
+      <c r="D31" t="e">
+        <f>AVERAGE(D21:D30)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="E31" t="e">
+        <f>AVERAGE(E21:E30)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="F31" t="e">
+        <f>AVERAGE(F21:F30)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="G31" t="e">
+        <f>AVERAGE(G21:G30)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="H31" t="e">
+        <f>AVERAGE(H21:H30)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="I31" t="e">
+        <f t="shared" si="2"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="33" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B33" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="34" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B34" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C34" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D34" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="E34" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="F34" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="G34" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="H34" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="I34" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="35" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B35">
+        <v>1</v>
+      </c>
+      <c r="C35">
+        <v>200</v>
+      </c>
+      <c r="I35">
+        <f>SUM(D35:H35)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B36">
+        <v>2</v>
+      </c>
+      <c r="C36">
+        <v>200</v>
+      </c>
+      <c r="I36">
+        <f t="shared" ref="I36:I45" si="3">SUM(D36:H36)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B37">
+        <v>3</v>
+      </c>
+      <c r="C37">
+        <v>200</v>
+      </c>
+      <c r="I37">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B38">
+        <v>4</v>
+      </c>
+      <c r="C38">
+        <v>200</v>
+      </c>
+      <c r="I38">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B39">
+        <v>5</v>
+      </c>
+      <c r="C39">
+        <v>200</v>
+      </c>
+      <c r="I39">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B40">
+        <v>6</v>
+      </c>
+      <c r="C40">
+        <v>200</v>
+      </c>
+      <c r="I40">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B41">
+        <v>7</v>
+      </c>
+      <c r="C41">
+        <v>200</v>
+      </c>
+      <c r="I41">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B42">
+        <v>8</v>
+      </c>
+      <c r="C42">
+        <v>200</v>
+      </c>
+      <c r="I42">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B43">
+        <v>9</v>
+      </c>
+      <c r="C43">
+        <v>200</v>
+      </c>
+      <c r="I43">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B44">
+        <v>10</v>
+      </c>
+      <c r="C44">
+        <v>200</v>
+      </c>
+      <c r="I44">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="C45" t="s">
+        <v>15</v>
+      </c>
+      <c r="D45" t="e">
+        <f>AVERAGE(D35:D44)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="E45" t="e">
+        <f>AVERAGE(E35:E44)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="F45" t="e">
+        <f>AVERAGE(F35:F44)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="G45" t="e">
+        <f>AVERAGE(G35:G44)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="H45" t="e">
+        <f>AVERAGE(H35:H44)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="I45" t="e">
+        <f t="shared" si="3"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="B2:C3"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/Data.xlsx
+++ b/Data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/nejcjenko/Documents/GitHub/Pareto-fronte-v-vec-dimenzijah/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D7B6A7F5-AC66-154C-ADDB-C6B19A850BB7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E04203D6-DF28-124F-B85F-96281E174527}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="27640" windowHeight="15680" xr2:uid="{70F57464-07EE-6D44-894E-A2427728D4C0}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="27640" windowHeight="15680" activeTab="3" xr2:uid="{70F57464-07EE-6D44-894E-A2427728D4C0}"/>
   </bookViews>
   <sheets>
     <sheet name="2 dimenziji" sheetId="2" r:id="rId1"/>
@@ -63,9 +63,6 @@
     <t>Povprečje za 50 točk</t>
   </si>
   <si>
-    <t>3 dimenzije</t>
-  </si>
-  <si>
     <t>št. Točk v prvih 5 pareto frontah</t>
   </si>
   <si>
@@ -78,19 +75,22 @@
     <t>200 TOČK</t>
   </si>
   <si>
-    <t>2 dimenziji</t>
-  </si>
-  <si>
     <t>Povprečje za 100 točk</t>
   </si>
   <si>
     <t>Povprečje za 200 točk</t>
   </si>
   <si>
-    <t>4 dimenzije</t>
+    <t>2 dimenziji krogla</t>
   </si>
   <si>
-    <t>5 dimenzij</t>
+    <t>3 dimenzije krogla</t>
+  </si>
+  <si>
+    <t>4 dimenzije krogla</t>
+  </si>
+  <si>
+    <t>5 dimenzij krogla</t>
   </si>
 </sst>
 </file>
@@ -142,13 +142,17 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -465,8 +469,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3030A96B-6BCE-A34B-9F15-40CDBF632279}">
   <dimension ref="B2:I45"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="K13" sqref="K13"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F3" sqref="F3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -477,24 +481,24 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:9" ht="34" x14ac:dyDescent="0.4">
-      <c r="B2" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="C2" s="3"/>
+      <c r="B2" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="C2" s="4"/>
       <c r="D2" s="2"/>
       <c r="E2" s="2"/>
       <c r="F2" s="2"/>
     </row>
     <row r="3" spans="2:9" ht="34" x14ac:dyDescent="0.4">
-      <c r="B3" s="3"/>
-      <c r="C3" s="3"/>
+      <c r="B3" s="4"/>
+      <c r="C3" s="4"/>
       <c r="D3" s="2"/>
       <c r="E3" s="2"/>
       <c r="F3" s="2"/>
     </row>
     <row r="5" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B5" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="6" spans="2:9" x14ac:dyDescent="0.2">
@@ -520,7 +524,7 @@
         <v>4</v>
       </c>
       <c r="I6" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="7" spans="2:9" x14ac:dyDescent="0.2">
@@ -824,7 +828,7 @@
     </row>
     <row r="19" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B19" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="20" spans="2:9" x14ac:dyDescent="0.2">
@@ -850,7 +854,7 @@
         <v>4</v>
       </c>
       <c r="I20" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="21" spans="2:9" x14ac:dyDescent="0.2">
@@ -860,9 +864,24 @@
       <c r="C21">
         <v>100</v>
       </c>
+      <c r="D21">
+        <v>7</v>
+      </c>
+      <c r="E21">
+        <v>8</v>
+      </c>
+      <c r="F21">
+        <v>10</v>
+      </c>
+      <c r="G21">
+        <v>10</v>
+      </c>
+      <c r="H21">
+        <v>14</v>
+      </c>
       <c r="I21">
         <f>SUM(D21:H21)</f>
-        <v>0</v>
+        <v>49</v>
       </c>
     </row>
     <row r="22" spans="2:9" x14ac:dyDescent="0.2">
@@ -872,9 +891,24 @@
       <c r="C22">
         <v>100</v>
       </c>
+      <c r="D22">
+        <v>9</v>
+      </c>
+      <c r="E22">
+        <v>6</v>
+      </c>
+      <c r="F22">
+        <v>12</v>
+      </c>
+      <c r="G22">
+        <v>14</v>
+      </c>
+      <c r="H22">
+        <v>15</v>
+      </c>
       <c r="I22">
         <f t="shared" ref="I22:I31" si="2">SUM(D22:H22)</f>
-        <v>0</v>
+        <v>56</v>
       </c>
     </row>
     <row r="23" spans="2:9" x14ac:dyDescent="0.2">
@@ -884,9 +918,24 @@
       <c r="C23">
         <v>100</v>
       </c>
+      <c r="D23">
+        <v>9</v>
+      </c>
+      <c r="E23">
+        <v>9</v>
+      </c>
+      <c r="F23">
+        <v>7</v>
+      </c>
+      <c r="G23">
+        <v>9</v>
+      </c>
+      <c r="H23">
+        <v>10</v>
+      </c>
       <c r="I23">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>44</v>
       </c>
     </row>
     <row r="24" spans="2:9" x14ac:dyDescent="0.2">
@@ -896,9 +945,24 @@
       <c r="C24">
         <v>100</v>
       </c>
+      <c r="D24">
+        <v>6</v>
+      </c>
+      <c r="E24">
+        <v>7</v>
+      </c>
+      <c r="F24">
+        <v>6</v>
+      </c>
+      <c r="G24">
+        <v>7</v>
+      </c>
+      <c r="H24">
+        <v>9</v>
+      </c>
       <c r="I24">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>35</v>
       </c>
     </row>
     <row r="25" spans="2:9" x14ac:dyDescent="0.2">
@@ -908,9 +972,24 @@
       <c r="C25">
         <v>100</v>
       </c>
+      <c r="D25">
+        <v>6</v>
+      </c>
+      <c r="E25">
+        <v>6</v>
+      </c>
+      <c r="F25">
+        <v>9</v>
+      </c>
+      <c r="G25">
+        <v>14</v>
+      </c>
+      <c r="H25">
+        <v>11</v>
+      </c>
       <c r="I25">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>46</v>
       </c>
     </row>
     <row r="26" spans="2:9" x14ac:dyDescent="0.2">
@@ -920,9 +999,24 @@
       <c r="C26">
         <v>100</v>
       </c>
+      <c r="D26">
+        <v>5</v>
+      </c>
+      <c r="E26">
+        <v>11</v>
+      </c>
+      <c r="F26">
+        <v>10</v>
+      </c>
+      <c r="G26">
+        <v>10</v>
+      </c>
+      <c r="H26">
+        <v>12</v>
+      </c>
       <c r="I26">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>48</v>
       </c>
     </row>
     <row r="27" spans="2:9" x14ac:dyDescent="0.2">
@@ -932,9 +1026,24 @@
       <c r="C27">
         <v>100</v>
       </c>
+      <c r="D27">
+        <v>8</v>
+      </c>
+      <c r="E27">
+        <v>5</v>
+      </c>
+      <c r="F27">
+        <v>9</v>
+      </c>
+      <c r="G27">
+        <v>12</v>
+      </c>
+      <c r="H27">
+        <v>13</v>
+      </c>
       <c r="I27">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>47</v>
       </c>
     </row>
     <row r="28" spans="2:9" x14ac:dyDescent="0.2">
@@ -944,9 +1053,24 @@
       <c r="C28">
         <v>100</v>
       </c>
+      <c r="D28">
+        <v>6</v>
+      </c>
+      <c r="E28">
+        <v>6</v>
+      </c>
+      <c r="F28">
+        <v>8</v>
+      </c>
+      <c r="G28">
+        <v>10</v>
+      </c>
+      <c r="H28">
+        <v>14</v>
+      </c>
       <c r="I28">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>44</v>
       </c>
     </row>
     <row r="29" spans="2:9" x14ac:dyDescent="0.2">
@@ -956,9 +1080,24 @@
       <c r="C29">
         <v>100</v>
       </c>
+      <c r="D29">
+        <v>9</v>
+      </c>
+      <c r="E29">
+        <v>8</v>
+      </c>
+      <c r="F29">
+        <v>12</v>
+      </c>
+      <c r="G29">
+        <v>9</v>
+      </c>
+      <c r="H29">
+        <v>9</v>
+      </c>
       <c r="I29">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>47</v>
       </c>
     </row>
     <row r="30" spans="2:9" x14ac:dyDescent="0.2">
@@ -968,43 +1107,58 @@
       <c r="C30">
         <v>100</v>
       </c>
+      <c r="D30">
+        <v>8</v>
+      </c>
+      <c r="E30">
+        <v>8</v>
+      </c>
+      <c r="F30">
+        <v>6</v>
+      </c>
+      <c r="G30">
+        <v>9</v>
+      </c>
+      <c r="H30">
+        <v>8</v>
+      </c>
       <c r="I30">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>39</v>
       </c>
     </row>
     <row r="31" spans="2:9" x14ac:dyDescent="0.2">
       <c r="C31" t="s">
-        <v>14</v>
-      </c>
-      <c r="D31" t="e">
+        <v>12</v>
+      </c>
+      <c r="D31">
         <f>AVERAGE(D21:D30)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="E31" t="e">
+        <v>7.3</v>
+      </c>
+      <c r="E31">
         <f>AVERAGE(E21:E30)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="F31" t="e">
+        <v>7.4</v>
+      </c>
+      <c r="F31">
         <f>AVERAGE(F21:F30)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="G31" t="e">
+        <v>8.9</v>
+      </c>
+      <c r="G31">
         <f>AVERAGE(G21:G30)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="H31" t="e">
+        <v>10.4</v>
+      </c>
+      <c r="H31">
         <f>AVERAGE(H21:H30)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="I31" t="e">
+        <v>11.5</v>
+      </c>
+      <c r="I31">
         <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
+        <v>45.5</v>
       </c>
     </row>
     <row r="33" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B33" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="34" spans="2:9" x14ac:dyDescent="0.2">
@@ -1030,7 +1184,7 @@
         <v>4</v>
       </c>
       <c r="I34" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="35" spans="2:9" x14ac:dyDescent="0.2">
@@ -1040,9 +1194,24 @@
       <c r="C35">
         <v>200</v>
       </c>
+      <c r="D35">
+        <v>7</v>
+      </c>
+      <c r="E35">
+        <v>8</v>
+      </c>
+      <c r="F35">
+        <v>12</v>
+      </c>
+      <c r="G35">
+        <v>12</v>
+      </c>
+      <c r="H35">
+        <v>10</v>
+      </c>
       <c r="I35">
         <f>SUM(D35:H35)</f>
-        <v>0</v>
+        <v>49</v>
       </c>
     </row>
     <row r="36" spans="2:9" x14ac:dyDescent="0.2">
@@ -1052,9 +1221,24 @@
       <c r="C36">
         <v>200</v>
       </c>
+      <c r="D36">
+        <v>10</v>
+      </c>
+      <c r="E36">
+        <v>13</v>
+      </c>
+      <c r="F36">
+        <v>11</v>
+      </c>
+      <c r="G36">
+        <v>10</v>
+      </c>
+      <c r="H36">
+        <v>9</v>
+      </c>
       <c r="I36">
         <f t="shared" ref="I36:I45" si="3">SUM(D36:H36)</f>
-        <v>0</v>
+        <v>53</v>
       </c>
     </row>
     <row r="37" spans="2:9" x14ac:dyDescent="0.2">
@@ -1064,9 +1248,24 @@
       <c r="C37">
         <v>200</v>
       </c>
+      <c r="D37">
+        <v>12</v>
+      </c>
+      <c r="E37">
+        <v>11</v>
+      </c>
+      <c r="F37">
+        <v>12</v>
+      </c>
+      <c r="G37">
+        <v>12</v>
+      </c>
+      <c r="H37">
+        <v>10</v>
+      </c>
       <c r="I37">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>57</v>
       </c>
     </row>
     <row r="38" spans="2:9" x14ac:dyDescent="0.2">
@@ -1076,9 +1275,24 @@
       <c r="C38">
         <v>200</v>
       </c>
+      <c r="D38">
+        <v>8</v>
+      </c>
+      <c r="E38">
+        <v>8</v>
+      </c>
+      <c r="F38">
+        <v>9</v>
+      </c>
+      <c r="G38">
+        <v>10</v>
+      </c>
+      <c r="H38">
+        <v>9</v>
+      </c>
       <c r="I38">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>44</v>
       </c>
     </row>
     <row r="39" spans="2:9" x14ac:dyDescent="0.2">
@@ -1088,9 +1302,24 @@
       <c r="C39">
         <v>200</v>
       </c>
+      <c r="D39">
+        <v>10</v>
+      </c>
+      <c r="E39">
+        <v>10</v>
+      </c>
+      <c r="F39">
+        <v>12</v>
+      </c>
+      <c r="G39">
+        <v>9</v>
+      </c>
+      <c r="H39">
+        <v>18</v>
+      </c>
       <c r="I39">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>59</v>
       </c>
     </row>
     <row r="40" spans="2:9" x14ac:dyDescent="0.2">
@@ -1100,9 +1329,24 @@
       <c r="C40">
         <v>200</v>
       </c>
+      <c r="D40">
+        <v>12</v>
+      </c>
+      <c r="E40">
+        <v>11</v>
+      </c>
+      <c r="F40">
+        <v>15</v>
+      </c>
+      <c r="G40">
+        <v>11</v>
+      </c>
+      <c r="H40">
+        <v>12</v>
+      </c>
       <c r="I40">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>61</v>
       </c>
     </row>
     <row r="41" spans="2:9" x14ac:dyDescent="0.2">
@@ -1112,9 +1356,24 @@
       <c r="C41">
         <v>200</v>
       </c>
+      <c r="D41">
+        <v>11</v>
+      </c>
+      <c r="E41">
+        <v>10</v>
+      </c>
+      <c r="F41">
+        <v>14</v>
+      </c>
+      <c r="G41">
+        <v>12</v>
+      </c>
+      <c r="H41">
+        <v>7</v>
+      </c>
       <c r="I41">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>54</v>
       </c>
     </row>
     <row r="42" spans="2:9" x14ac:dyDescent="0.2">
@@ -1124,9 +1383,24 @@
       <c r="C42">
         <v>200</v>
       </c>
+      <c r="D42">
+        <v>9</v>
+      </c>
+      <c r="E42">
+        <v>13</v>
+      </c>
+      <c r="F42">
+        <v>11</v>
+      </c>
+      <c r="G42">
+        <v>13</v>
+      </c>
+      <c r="H42">
+        <v>15</v>
+      </c>
       <c r="I42">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>61</v>
       </c>
     </row>
     <row r="43" spans="2:9" x14ac:dyDescent="0.2">
@@ -1136,9 +1410,24 @@
       <c r="C43">
         <v>200</v>
       </c>
+      <c r="D43">
+        <v>10</v>
+      </c>
+      <c r="E43">
+        <v>8</v>
+      </c>
+      <c r="F43">
+        <v>10</v>
+      </c>
+      <c r="G43">
+        <v>9</v>
+      </c>
+      <c r="H43">
+        <v>9</v>
+      </c>
       <c r="I43">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>46</v>
       </c>
     </row>
     <row r="44" spans="2:9" x14ac:dyDescent="0.2">
@@ -1148,38 +1437,53 @@
       <c r="C44">
         <v>200</v>
       </c>
+      <c r="D44">
+        <v>11</v>
+      </c>
+      <c r="E44">
+        <v>9</v>
+      </c>
+      <c r="F44">
+        <v>11</v>
+      </c>
+      <c r="G44">
+        <v>13</v>
+      </c>
+      <c r="H44">
+        <v>13</v>
+      </c>
       <c r="I44">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>57</v>
       </c>
     </row>
     <row r="45" spans="2:9" x14ac:dyDescent="0.2">
       <c r="C45" t="s">
-        <v>15</v>
-      </c>
-      <c r="D45" t="e">
+        <v>13</v>
+      </c>
+      <c r="D45">
         <f>AVERAGE(D35:D44)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="E45" t="e">
+        <v>10</v>
+      </c>
+      <c r="E45">
         <f>AVERAGE(E35:E44)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="F45" t="e">
+        <v>10.1</v>
+      </c>
+      <c r="F45">
         <f>AVERAGE(F35:F44)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="G45" t="e">
+        <v>11.7</v>
+      </c>
+      <c r="G45">
         <f>AVERAGE(G35:G44)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="H45" t="e">
+        <v>11.1</v>
+      </c>
+      <c r="H45">
         <f>AVERAGE(H35:H44)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="I45" t="e">
+        <v>11.2</v>
+      </c>
+      <c r="I45">
         <f t="shared" si="3"/>
-        <v>#DIV/0!</v>
+        <v>54.099999999999994</v>
       </c>
     </row>
   </sheetData>
@@ -1194,8 +1498,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FE1C919C-7229-7041-875E-3BE3CDC2D46A}">
   <dimension ref="B2:I45"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:I45"/>
+    <sheetView topLeftCell="A33" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2:C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1208,7 +1512,7 @@
   <sheetData>
     <row r="2" spans="2:9" ht="16" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B2" s="3" t="s">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="C2" s="3"/>
       <c r="D2" s="2"/>
@@ -1224,7 +1528,7 @@
     </row>
     <row r="5" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B5" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="6" spans="2:9" x14ac:dyDescent="0.2">
@@ -1250,7 +1554,7 @@
         <v>4</v>
       </c>
       <c r="I6" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="7" spans="2:9" x14ac:dyDescent="0.2">
@@ -1554,7 +1858,7 @@
     </row>
     <row r="19" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B19" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="20" spans="2:9" x14ac:dyDescent="0.2">
@@ -1580,7 +1884,7 @@
         <v>4</v>
       </c>
       <c r="I20" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="21" spans="2:9" x14ac:dyDescent="0.2">
@@ -1884,7 +2188,7 @@
     </row>
     <row r="33" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B33" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="34" spans="2:9" x14ac:dyDescent="0.2">
@@ -1910,7 +2214,7 @@
         <v>4</v>
       </c>
       <c r="I34" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="35" spans="2:9" x14ac:dyDescent="0.2">
@@ -2222,10 +2526,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{13CB01BC-5CEE-CD43-8711-39682CA26EF0}">
-  <dimension ref="B2:I45"/>
+  <dimension ref="B2:K47"/>
   <sheetViews>
-    <sheetView topLeftCell="A28" workbookViewId="0">
-      <selection activeCell="I45" sqref="B2:I45"/>
+    <sheetView topLeftCell="A15" workbookViewId="0">
+      <selection activeCell="I9" sqref="I9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2235,28 +2539,39 @@
     <col min="9" max="9" width="28.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:9" ht="34" x14ac:dyDescent="0.4">
-      <c r="B2" s="3" t="s">
+    <row r="2" spans="2:11" ht="34" x14ac:dyDescent="0.4">
+      <c r="B2" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="C2" s="3"/>
+      <c r="C2" s="4"/>
       <c r="D2" s="2"/>
       <c r="E2" s="2"/>
       <c r="F2" s="2"/>
     </row>
-    <row r="3" spans="2:9" ht="34" x14ac:dyDescent="0.4">
-      <c r="B3" s="3"/>
-      <c r="C3" s="3"/>
+    <row r="3" spans="2:11" ht="34" x14ac:dyDescent="0.4">
+      <c r="B3" s="4"/>
+      <c r="C3" s="4"/>
       <c r="D3" s="2"/>
       <c r="E3" s="2"/>
       <c r="F3" s="2"/>
-    </row>
-    <row r="5" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="K3">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="4" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="K4">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="5" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B5" s="1" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="6" spans="2:9" x14ac:dyDescent="0.2">
+        <v>9</v>
+      </c>
+      <c r="K5">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="6" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>6</v>
       </c>
@@ -2279,164 +2594,358 @@
         <v>4</v>
       </c>
       <c r="I6" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="7" spans="2:9" x14ac:dyDescent="0.2">
+        <v>8</v>
+      </c>
+      <c r="K6">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="7" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B7">
         <v>1</v>
       </c>
       <c r="C7">
         <v>50</v>
       </c>
+      <c r="D7">
+        <v>14</v>
+      </c>
+      <c r="E7">
+        <v>13</v>
+      </c>
+      <c r="F7">
+        <v>16</v>
+      </c>
+      <c r="G7">
+        <v>4</v>
+      </c>
+      <c r="H7">
+        <v>2</v>
+      </c>
       <c r="I7">
         <f>SUM(D7:H7)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="2:9" x14ac:dyDescent="0.2">
+        <v>49</v>
+      </c>
+      <c r="K7">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B8">
         <v>2</v>
       </c>
       <c r="C8">
         <v>50</v>
+      </c>
+      <c r="D8">
+        <v>11</v>
+      </c>
+      <c r="E8">
+        <v>24</v>
+      </c>
+      <c r="F8">
+        <v>10</v>
+      </c>
+      <c r="G8">
+        <v>3</v>
+      </c>
+      <c r="H8">
+        <v>2</v>
       </c>
       <c r="I8">
         <f t="shared" ref="I8:I16" si="0">SUM(D8:H8)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="2:9" x14ac:dyDescent="0.2">
+        <v>50</v>
+      </c>
+      <c r="K8">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="9" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B9">
         <v>3</v>
       </c>
       <c r="C9">
         <v>50</v>
       </c>
+      <c r="D9">
+        <v>18</v>
+      </c>
+      <c r="E9">
+        <v>24</v>
+      </c>
+      <c r="F9">
+        <v>3</v>
+      </c>
+      <c r="G9">
+        <v>4</v>
+      </c>
+      <c r="H9">
+        <v>1</v>
+      </c>
       <c r="I9">
         <f t="shared" si="0"/>
+        <v>50</v>
+      </c>
+      <c r="K9">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="10" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B10">
+        <v>4</v>
+      </c>
+      <c r="C10">
+        <v>50</v>
+      </c>
+      <c r="D10">
+        <v>27</v>
+      </c>
+      <c r="E10">
+        <v>17</v>
+      </c>
+      <c r="F10">
+        <v>4</v>
+      </c>
+      <c r="G10">
+        <v>2</v>
+      </c>
+      <c r="H10">
         <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B10">
-        <v>4</v>
-      </c>
-      <c r="C10">
-        <v>50</v>
       </c>
       <c r="I10">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="2:9" x14ac:dyDescent="0.2">
+        <v>50</v>
+      </c>
+      <c r="K10">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="11" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B11">
         <v>5</v>
       </c>
       <c r="C11">
         <v>50</v>
       </c>
+      <c r="D11">
+        <v>25</v>
+      </c>
+      <c r="E11">
+        <v>21</v>
+      </c>
+      <c r="F11">
+        <v>3</v>
+      </c>
+      <c r="G11">
+        <v>1</v>
+      </c>
+      <c r="H11">
+        <v>0</v>
+      </c>
       <c r="I11">
         <f t="shared" si="0"/>
+        <v>50</v>
+      </c>
+      <c r="K11">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="12" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B12">
+        <v>6</v>
+      </c>
+      <c r="C12">
+        <v>50</v>
+      </c>
+      <c r="D12">
+        <v>14</v>
+      </c>
+      <c r="E12">
+        <v>22</v>
+      </c>
+      <c r="F12">
+        <v>11</v>
+      </c>
+      <c r="G12">
+        <v>3</v>
+      </c>
+      <c r="H12">
         <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B12">
-        <v>6</v>
-      </c>
-      <c r="C12">
-        <v>50</v>
       </c>
       <c r="I12">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="2:9" x14ac:dyDescent="0.2">
+        <v>50</v>
+      </c>
+      <c r="K12">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="13" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B13">
         <v>7</v>
       </c>
       <c r="C13">
         <v>50</v>
       </c>
+      <c r="D13">
+        <v>27</v>
+      </c>
+      <c r="E13">
+        <v>16</v>
+      </c>
+      <c r="F13">
+        <v>6</v>
+      </c>
+      <c r="G13">
+        <v>1</v>
+      </c>
+      <c r="H13">
+        <v>0</v>
+      </c>
       <c r="I13">
         <f t="shared" si="0"/>
+        <v>50</v>
+      </c>
+      <c r="K13">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="14" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B14">
+        <v>8</v>
+      </c>
+      <c r="C14">
+        <v>50</v>
+      </c>
+      <c r="D14">
+        <v>21</v>
+      </c>
+      <c r="E14">
+        <v>19</v>
+      </c>
+      <c r="F14">
+        <v>8</v>
+      </c>
+      <c r="G14">
+        <v>2</v>
+      </c>
+      <c r="H14">
         <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B14">
-        <v>8</v>
-      </c>
-      <c r="C14">
-        <v>50</v>
       </c>
       <c r="I14">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="2:9" x14ac:dyDescent="0.2">
+        <v>50</v>
+      </c>
+      <c r="K14">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="15" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B15">
         <v>9</v>
       </c>
       <c r="C15">
         <v>50</v>
       </c>
+      <c r="D15">
+        <v>27</v>
+      </c>
+      <c r="E15">
+        <v>14</v>
+      </c>
+      <c r="F15">
+        <v>6</v>
+      </c>
+      <c r="G15">
+        <v>2</v>
+      </c>
+      <c r="H15">
+        <v>1</v>
+      </c>
       <c r="I15">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="2:9" x14ac:dyDescent="0.2">
+        <v>50</v>
+      </c>
+      <c r="K15">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="16" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B16">
         <v>10</v>
       </c>
       <c r="C16">
         <v>50</v>
       </c>
+      <c r="D16">
+        <v>20</v>
+      </c>
+      <c r="E16">
+        <v>14</v>
+      </c>
+      <c r="F16">
+        <v>8</v>
+      </c>
+      <c r="G16">
+        <v>5</v>
+      </c>
+      <c r="H16">
+        <v>3</v>
+      </c>
       <c r="I16">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="2:9" x14ac:dyDescent="0.2">
+        <v>50</v>
+      </c>
+      <c r="K16">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="17" spans="2:11" x14ac:dyDescent="0.2">
       <c r="C17" t="s">
         <v>7</v>
       </c>
-      <c r="D17" t="e">
-        <f t="shared" ref="D17:I17" si="1">AVERAGE(D7:D16)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="E17" t="e">
-        <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="F17" t="e">
-        <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="G17" t="e">
-        <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="H17" t="e">
-        <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
+      <c r="D17" s="5">
+        <f>AVERAGE(D7:D15)</f>
+        <v>20.444444444444443</v>
+      </c>
+      <c r="E17" s="5">
+        <f>AVERAGE(E7:E15)</f>
+        <v>18.888888888888889</v>
+      </c>
+      <c r="F17" s="5">
+        <f>AVERAGE(F7:F15)</f>
+        <v>7.4444444444444446</v>
+      </c>
+      <c r="G17" s="5">
+        <f>AVERAGE(G7:G15)</f>
+        <v>2.4444444444444446</v>
+      </c>
+      <c r="H17" s="5">
+        <f>AVERAGE(H7:H15)</f>
+        <v>0.66666666666666663</v>
       </c>
       <c r="I17">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="2:9" x14ac:dyDescent="0.2">
+        <f>SUM(D17:H17)</f>
+        <v>49.888888888888879</v>
+      </c>
+      <c r="K17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="K18">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="19" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B19" s="1" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="20" spans="2:9" x14ac:dyDescent="0.2">
+        <v>10</v>
+      </c>
+      <c r="K19">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="20" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B20" s="1" t="s">
         <v>6</v>
       </c>
@@ -2459,164 +2968,358 @@
         <v>4</v>
       </c>
       <c r="I20" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="21" spans="2:9" x14ac:dyDescent="0.2">
+        <v>8</v>
+      </c>
+      <c r="K20">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="21" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B21">
         <v>1</v>
       </c>
       <c r="C21">
         <v>100</v>
       </c>
+      <c r="D21">
+        <v>19</v>
+      </c>
+      <c r="E21">
+        <v>30</v>
+      </c>
+      <c r="F21">
+        <v>32</v>
+      </c>
+      <c r="G21">
+        <v>7</v>
+      </c>
+      <c r="H21">
+        <v>5</v>
+      </c>
       <c r="I21">
         <f>SUM(D21:H21)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="2:9" x14ac:dyDescent="0.2">
+        <v>93</v>
+      </c>
+      <c r="K21">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="22" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B22">
         <v>2</v>
       </c>
       <c r="C22">
         <v>100</v>
       </c>
+      <c r="D22">
+        <v>20</v>
+      </c>
+      <c r="E22">
+        <v>50</v>
+      </c>
+      <c r="F22">
+        <v>23</v>
+      </c>
+      <c r="G22">
+        <v>4</v>
+      </c>
+      <c r="H22">
+        <v>3</v>
+      </c>
       <c r="I22">
-        <f t="shared" ref="I22:I31" si="2">SUM(D22:H22)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="2:9" x14ac:dyDescent="0.2">
+        <f t="shared" ref="I22:I31" si="1">SUM(D22:H22)</f>
+        <v>100</v>
+      </c>
+      <c r="K22">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="23" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B23">
         <v>3</v>
       </c>
       <c r="C23">
         <v>100</v>
       </c>
+      <c r="D23">
+        <v>32</v>
+      </c>
+      <c r="E23">
+        <v>33</v>
+      </c>
+      <c r="F23">
+        <v>21</v>
+      </c>
+      <c r="G23">
+        <v>10</v>
+      </c>
+      <c r="H23">
+        <v>4</v>
+      </c>
       <c r="I23">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="2:9" x14ac:dyDescent="0.2">
+        <f t="shared" si="1"/>
+        <v>100</v>
+      </c>
+      <c r="K23">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="24" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B24">
         <v>4</v>
       </c>
       <c r="C24">
         <v>100</v>
       </c>
+      <c r="D24">
+        <v>30</v>
+      </c>
+      <c r="E24">
+        <v>38</v>
+      </c>
+      <c r="F24">
+        <v>23</v>
+      </c>
+      <c r="G24">
+        <v>4</v>
+      </c>
+      <c r="H24">
+        <v>4</v>
+      </c>
       <c r="I24">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="2:9" x14ac:dyDescent="0.2">
+        <f t="shared" si="1"/>
+        <v>99</v>
+      </c>
+      <c r="K24">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="25" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B25">
         <v>5</v>
       </c>
       <c r="C25">
         <v>100</v>
       </c>
+      <c r="D25">
+        <v>21</v>
+      </c>
+      <c r="E25">
+        <v>33</v>
+      </c>
+      <c r="F25">
+        <v>33</v>
+      </c>
+      <c r="G25">
+        <v>7</v>
+      </c>
+      <c r="H25">
+        <v>4</v>
+      </c>
       <c r="I25">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="26" spans="2:9" x14ac:dyDescent="0.2">
+        <f t="shared" si="1"/>
+        <v>98</v>
+      </c>
+      <c r="K25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B26">
         <v>6</v>
       </c>
       <c r="C26">
         <v>100</v>
       </c>
+      <c r="D26">
+        <v>28</v>
+      </c>
+      <c r="E26">
+        <v>34</v>
+      </c>
+      <c r="F26">
+        <v>25</v>
+      </c>
+      <c r="G26">
+        <v>5</v>
+      </c>
+      <c r="H26">
+        <v>6</v>
+      </c>
       <c r="I26">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="27" spans="2:9" x14ac:dyDescent="0.2">
+        <f t="shared" si="1"/>
+        <v>98</v>
+      </c>
+      <c r="K26">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="27" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B27">
         <v>7</v>
       </c>
       <c r="C27">
         <v>100</v>
       </c>
+      <c r="D27">
+        <v>23</v>
+      </c>
+      <c r="E27">
+        <v>33</v>
+      </c>
+      <c r="F27">
+        <v>25</v>
+      </c>
+      <c r="G27">
+        <v>11</v>
+      </c>
+      <c r="H27">
+        <v>6</v>
+      </c>
       <c r="I27">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="28" spans="2:9" x14ac:dyDescent="0.2">
+        <f t="shared" si="1"/>
+        <v>98</v>
+      </c>
+      <c r="K27">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="28" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B28">
         <v>8</v>
       </c>
       <c r="C28">
         <v>100</v>
       </c>
+      <c r="D28">
+        <v>22</v>
+      </c>
+      <c r="E28">
+        <v>46</v>
+      </c>
+      <c r="F28">
+        <v>20</v>
+      </c>
+      <c r="G28">
+        <v>6</v>
+      </c>
+      <c r="H28">
+        <v>4</v>
+      </c>
       <c r="I28">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="29" spans="2:9" x14ac:dyDescent="0.2">
+        <f t="shared" si="1"/>
+        <v>98</v>
+      </c>
+      <c r="K28">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="29" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B29">
         <v>9</v>
       </c>
       <c r="C29">
         <v>100</v>
       </c>
+      <c r="D29">
+        <v>24</v>
+      </c>
+      <c r="E29">
+        <v>40</v>
+      </c>
+      <c r="F29">
+        <v>19</v>
+      </c>
+      <c r="G29">
+        <v>10</v>
+      </c>
+      <c r="H29">
+        <v>3</v>
+      </c>
       <c r="I29">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="30" spans="2:9" x14ac:dyDescent="0.2">
+        <f t="shared" si="1"/>
+        <v>96</v>
+      </c>
+      <c r="K29">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="30" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B30">
         <v>10</v>
       </c>
       <c r="C30">
         <v>100</v>
       </c>
+      <c r="D30">
+        <v>17</v>
+      </c>
+      <c r="E30">
+        <v>37</v>
+      </c>
+      <c r="F30">
+        <v>33</v>
+      </c>
+      <c r="G30">
+        <v>8</v>
+      </c>
+      <c r="H30">
+        <v>3</v>
+      </c>
       <c r="I30">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="31" spans="2:9" x14ac:dyDescent="0.2">
+        <f t="shared" si="1"/>
+        <v>98</v>
+      </c>
+      <c r="K30">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="31" spans="2:11" x14ac:dyDescent="0.2">
       <c r="C31" t="s">
-        <v>14</v>
-      </c>
-      <c r="D31" t="e">
+        <v>12</v>
+      </c>
+      <c r="D31">
         <f>AVERAGE(D21:D30)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="E31" t="e">
+        <v>23.6</v>
+      </c>
+      <c r="E31">
         <f>AVERAGE(E21:E30)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="F31" t="e">
+        <v>37.4</v>
+      </c>
+      <c r="F31">
         <f>AVERAGE(F21:F30)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="G31" t="e">
+        <v>25.4</v>
+      </c>
+      <c r="G31">
         <f>AVERAGE(G21:G30)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="H31" t="e">
+        <v>7.2</v>
+      </c>
+      <c r="H31">
         <f>AVERAGE(H21:H30)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="I31" t="e">
-        <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="33" spans="2:9" x14ac:dyDescent="0.2">
+        <v>4.2</v>
+      </c>
+      <c r="I31">
+        <f t="shared" si="1"/>
+        <v>97.800000000000011</v>
+      </c>
+      <c r="K31">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="32" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="K32">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="33" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B33" s="1" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="34" spans="2:9" x14ac:dyDescent="0.2">
+        <v>11</v>
+      </c>
+      <c r="K33">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="34" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B34" s="1" t="s">
         <v>6</v>
       </c>
@@ -2639,156 +3342,352 @@
         <v>4</v>
       </c>
       <c r="I34" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="35" spans="2:9" x14ac:dyDescent="0.2">
+        <v>8</v>
+      </c>
+      <c r="K34">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="35" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B35">
         <v>1</v>
       </c>
       <c r="C35">
         <v>200</v>
       </c>
+      <c r="D35">
+        <v>32</v>
+      </c>
+      <c r="E35">
+        <v>42</v>
+      </c>
+      <c r="F35">
+        <v>49</v>
+      </c>
+      <c r="G35">
+        <v>35</v>
+      </c>
+      <c r="H35">
+        <v>15</v>
+      </c>
       <c r="I35">
         <f>SUM(D35:H35)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="36" spans="2:9" x14ac:dyDescent="0.2">
+        <v>173</v>
+      </c>
+      <c r="K35">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="36" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B36">
         <v>2</v>
       </c>
       <c r="C36">
         <v>200</v>
       </c>
+      <c r="D36">
+        <v>39</v>
+      </c>
+      <c r="E36">
+        <v>72</v>
+      </c>
+      <c r="F36">
+        <v>52</v>
+      </c>
+      <c r="G36">
+        <v>19</v>
+      </c>
+      <c r="H36">
+        <v>5</v>
+      </c>
       <c r="I36">
-        <f t="shared" ref="I36:I45" si="3">SUM(D36:H36)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="37" spans="2:9" x14ac:dyDescent="0.2">
+        <f t="shared" ref="I36:I45" si="2">SUM(D36:H36)</f>
+        <v>187</v>
+      </c>
+      <c r="K36">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="37" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B37">
         <v>3</v>
       </c>
       <c r="C37">
         <v>200</v>
       </c>
+      <c r="D37">
+        <v>31</v>
+      </c>
+      <c r="E37">
+        <v>51</v>
+      </c>
+      <c r="F37">
+        <v>70</v>
+      </c>
+      <c r="G37">
+        <v>28</v>
+      </c>
+      <c r="H37">
+        <v>13</v>
+      </c>
       <c r="I37">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="38" spans="2:9" x14ac:dyDescent="0.2">
+        <f t="shared" si="2"/>
+        <v>193</v>
+      </c>
+      <c r="K37">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="38" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B38">
         <v>4</v>
       </c>
       <c r="C38">
         <v>200</v>
       </c>
+      <c r="D38">
+        <v>38</v>
+      </c>
+      <c r="E38">
+        <v>43</v>
+      </c>
+      <c r="F38">
+        <v>41</v>
+      </c>
+      <c r="G38">
+        <v>43</v>
+      </c>
+      <c r="H38">
+        <v>20</v>
+      </c>
       <c r="I38">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="39" spans="2:9" x14ac:dyDescent="0.2">
+        <f t="shared" si="2"/>
+        <v>185</v>
+      </c>
+      <c r="K38">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="39" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B39">
         <v>5</v>
       </c>
       <c r="C39">
         <v>200</v>
       </c>
+      <c r="D39">
+        <v>34</v>
+      </c>
+      <c r="E39">
+        <v>59</v>
+      </c>
+      <c r="F39">
+        <v>63</v>
+      </c>
+      <c r="G39">
+        <v>27</v>
+      </c>
+      <c r="H39">
+        <v>9</v>
+      </c>
       <c r="I39">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="40" spans="2:9" x14ac:dyDescent="0.2">
+        <f t="shared" si="2"/>
+        <v>192</v>
+      </c>
+      <c r="K39">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="40" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B40">
         <v>6</v>
       </c>
       <c r="C40">
         <v>200</v>
       </c>
+      <c r="D40">
+        <v>27</v>
+      </c>
+      <c r="E40">
+        <v>55</v>
+      </c>
+      <c r="F40">
+        <v>51</v>
+      </c>
+      <c r="G40">
+        <v>37</v>
+      </c>
+      <c r="H40">
+        <v>11</v>
+      </c>
       <c r="I40">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="41" spans="2:9" x14ac:dyDescent="0.2">
+        <f t="shared" si="2"/>
+        <v>181</v>
+      </c>
+      <c r="K40">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="41" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B41">
         <v>7</v>
       </c>
       <c r="C41">
         <v>200</v>
       </c>
+      <c r="D41">
+        <v>39</v>
+      </c>
+      <c r="E41">
+        <v>51</v>
+      </c>
+      <c r="F41">
+        <v>60</v>
+      </c>
+      <c r="G41">
+        <v>26</v>
+      </c>
+      <c r="H41">
+        <v>14</v>
+      </c>
       <c r="I41">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="42" spans="2:9" x14ac:dyDescent="0.2">
+        <f t="shared" si="2"/>
+        <v>190</v>
+      </c>
+      <c r="K41">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="42" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B42">
         <v>8</v>
       </c>
       <c r="C42">
         <v>200</v>
       </c>
+      <c r="D42">
+        <v>40</v>
+      </c>
+      <c r="E42">
+        <v>54</v>
+      </c>
+      <c r="F42">
+        <v>43</v>
+      </c>
+      <c r="G42">
+        <v>35</v>
+      </c>
+      <c r="H42">
+        <v>14</v>
+      </c>
       <c r="I42">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="43" spans="2:9" x14ac:dyDescent="0.2">
+        <f t="shared" si="2"/>
+        <v>186</v>
+      </c>
+      <c r="K42">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="43" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B43">
         <v>9</v>
       </c>
       <c r="C43">
         <v>200</v>
       </c>
+      <c r="D43">
+        <v>29</v>
+      </c>
+      <c r="E43">
+        <v>35</v>
+      </c>
+      <c r="F43">
+        <v>59</v>
+      </c>
+      <c r="G43">
+        <v>47</v>
+      </c>
+      <c r="H43">
+        <v>18</v>
+      </c>
       <c r="I43">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="44" spans="2:9" x14ac:dyDescent="0.2">
+        <f t="shared" si="2"/>
+        <v>188</v>
+      </c>
+      <c r="K43">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="44" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B44">
         <v>10</v>
       </c>
       <c r="C44">
         <v>200</v>
       </c>
+      <c r="D44">
+        <v>35</v>
+      </c>
+      <c r="E44">
+        <v>42</v>
+      </c>
+      <c r="F44">
+        <v>41</v>
+      </c>
+      <c r="G44">
+        <v>45</v>
+      </c>
+      <c r="H44">
+        <v>22</v>
+      </c>
       <c r="I44">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="45" spans="2:9" x14ac:dyDescent="0.2">
+        <f t="shared" si="2"/>
+        <v>185</v>
+      </c>
+      <c r="K44">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="45" spans="2:11" x14ac:dyDescent="0.2">
       <c r="C45" t="s">
-        <v>15</v>
-      </c>
-      <c r="D45" t="e">
+        <v>13</v>
+      </c>
+      <c r="D45">
         <f>AVERAGE(D35:D44)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="E45" t="e">
+        <v>34.4</v>
+      </c>
+      <c r="E45">
         <f>AVERAGE(E35:E44)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="F45" t="e">
+        <v>50.4</v>
+      </c>
+      <c r="F45">
         <f>AVERAGE(F35:F44)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="G45" t="e">
+        <v>52.9</v>
+      </c>
+      <c r="G45">
         <f>AVERAGE(G35:G44)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="H45" t="e">
+        <v>34.200000000000003</v>
+      </c>
+      <c r="H45">
         <f>AVERAGE(H35:H44)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="I45" t="e">
-        <f t="shared" si="3"/>
-        <v>#DIV/0!</v>
+        <v>14.1</v>
+      </c>
+      <c r="I45">
+        <f t="shared" si="2"/>
+        <v>185.99999999999997</v>
+      </c>
+      <c r="K45">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="46" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="K46">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="47" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="K47">
+        <v>3</v>
       </c>
     </row>
   </sheetData>
@@ -2803,8 +3702,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E6466265-9058-6240-8DF8-1E7AB3B7A55E}">
   <dimension ref="B2:I45"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="J55" sqref="J55"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2832,7 +3731,7 @@
     </row>
     <row r="5" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B5" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="6" spans="2:9" x14ac:dyDescent="0.2">
@@ -2858,7 +3757,7 @@
         <v>4</v>
       </c>
       <c r="I6" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="7" spans="2:9" x14ac:dyDescent="0.2">
@@ -2868,9 +3767,24 @@
       <c r="C7">
         <v>50</v>
       </c>
+      <c r="D7">
+        <v>32</v>
+      </c>
+      <c r="E7">
+        <v>13</v>
+      </c>
+      <c r="F7">
+        <v>5</v>
+      </c>
+      <c r="G7">
+        <v>0</v>
+      </c>
+      <c r="H7">
+        <v>0</v>
+      </c>
       <c r="I7">
         <f>SUM(D7:H7)</f>
-        <v>0</v>
+        <v>50</v>
       </c>
     </row>
     <row r="8" spans="2:9" x14ac:dyDescent="0.2">
@@ -2880,9 +3794,24 @@
       <c r="C8">
         <v>50</v>
       </c>
+      <c r="D8">
+        <v>21</v>
+      </c>
+      <c r="E8">
+        <v>22</v>
+      </c>
+      <c r="F8">
+        <v>5</v>
+      </c>
+      <c r="G8">
+        <v>1</v>
+      </c>
+      <c r="H8">
+        <v>1</v>
+      </c>
       <c r="I8">
         <f t="shared" ref="I8:I16" si="0">SUM(D8:H8)</f>
-        <v>0</v>
+        <v>50</v>
       </c>
     </row>
     <row r="9" spans="2:9" x14ac:dyDescent="0.2">
@@ -2892,9 +3821,24 @@
       <c r="C9">
         <v>50</v>
       </c>
+      <c r="D9">
+        <v>22</v>
+      </c>
+      <c r="E9">
+        <v>21</v>
+      </c>
+      <c r="F9">
+        <v>5</v>
+      </c>
+      <c r="G9">
+        <v>2</v>
+      </c>
+      <c r="H9">
+        <v>0</v>
+      </c>
       <c r="I9">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>50</v>
       </c>
     </row>
     <row r="10" spans="2:9" x14ac:dyDescent="0.2">
@@ -2904,9 +3848,24 @@
       <c r="C10">
         <v>50</v>
       </c>
+      <c r="D10">
+        <v>24</v>
+      </c>
+      <c r="E10">
+        <v>24</v>
+      </c>
+      <c r="F10">
+        <v>2</v>
+      </c>
+      <c r="G10">
+        <v>0</v>
+      </c>
+      <c r="H10">
+        <v>0</v>
+      </c>
       <c r="I10">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>50</v>
       </c>
     </row>
     <row r="11" spans="2:9" x14ac:dyDescent="0.2">
@@ -2916,9 +3875,24 @@
       <c r="C11">
         <v>50</v>
       </c>
+      <c r="D11">
+        <v>29</v>
+      </c>
+      <c r="E11">
+        <v>17</v>
+      </c>
+      <c r="F11">
+        <v>3</v>
+      </c>
+      <c r="G11">
+        <v>1</v>
+      </c>
+      <c r="H11">
+        <v>0</v>
+      </c>
       <c r="I11">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>50</v>
       </c>
     </row>
     <row r="12" spans="2:9" x14ac:dyDescent="0.2">
@@ -2928,9 +3902,24 @@
       <c r="C12">
         <v>50</v>
       </c>
+      <c r="D12">
+        <v>25</v>
+      </c>
+      <c r="E12">
+        <v>21</v>
+      </c>
+      <c r="F12">
+        <v>3</v>
+      </c>
+      <c r="G12">
+        <v>1</v>
+      </c>
+      <c r="H12">
+        <v>0</v>
+      </c>
       <c r="I12">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>50</v>
       </c>
     </row>
     <row r="13" spans="2:9" x14ac:dyDescent="0.2">
@@ -2940,9 +3929,21 @@
       <c r="C13">
         <v>50</v>
       </c>
+      <c r="D13">
+        <v>36</v>
+      </c>
+      <c r="E13">
+        <v>14</v>
+      </c>
+      <c r="G13">
+        <v>0</v>
+      </c>
+      <c r="H13">
+        <v>0</v>
+      </c>
       <c r="I13">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>50</v>
       </c>
     </row>
     <row r="14" spans="2:9" x14ac:dyDescent="0.2">
@@ -2952,9 +3953,24 @@
       <c r="C14">
         <v>50</v>
       </c>
+      <c r="D14">
+        <v>19</v>
+      </c>
+      <c r="E14">
+        <v>22</v>
+      </c>
+      <c r="F14">
+        <v>9</v>
+      </c>
+      <c r="G14">
+        <v>0</v>
+      </c>
+      <c r="H14">
+        <v>0</v>
+      </c>
       <c r="I14">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>50</v>
       </c>
     </row>
     <row r="15" spans="2:9" x14ac:dyDescent="0.2">
@@ -2964,9 +3980,24 @@
       <c r="C15">
         <v>50</v>
       </c>
+      <c r="D15">
+        <v>23</v>
+      </c>
+      <c r="E15">
+        <v>23</v>
+      </c>
+      <c r="F15">
+        <v>4</v>
+      </c>
+      <c r="G15">
+        <v>0</v>
+      </c>
+      <c r="H15">
+        <v>0</v>
+      </c>
       <c r="I15">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>50</v>
       </c>
     </row>
     <row r="16" spans="2:9" x14ac:dyDescent="0.2">
@@ -2976,43 +4007,58 @@
       <c r="C16">
         <v>50</v>
       </c>
+      <c r="D16">
+        <v>19</v>
+      </c>
+      <c r="E16">
+        <v>24</v>
+      </c>
+      <c r="F16">
+        <v>7</v>
+      </c>
+      <c r="G16">
+        <v>0</v>
+      </c>
+      <c r="H16">
+        <v>0</v>
+      </c>
       <c r="I16">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>50</v>
       </c>
     </row>
     <row r="17" spans="2:9" x14ac:dyDescent="0.2">
       <c r="C17" t="s">
         <v>7</v>
       </c>
-      <c r="D17" t="e">
+      <c r="D17" s="5">
         <f t="shared" ref="D17:I17" si="1">AVERAGE(D7:D16)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="E17" t="e">
+        <v>25</v>
+      </c>
+      <c r="E17" s="5">
         <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="F17" t="e">
+        <v>20.100000000000001</v>
+      </c>
+      <c r="F17" s="5">
         <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="G17" t="e">
+        <v>4.7777777777777777</v>
+      </c>
+      <c r="G17" s="5">
         <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="H17" t="e">
+        <v>0.5</v>
+      </c>
+      <c r="H17" s="5">
         <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
+        <v>0.1</v>
       </c>
       <c r="I17">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>50</v>
       </c>
     </row>
     <row r="19" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B19" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="20" spans="2:9" x14ac:dyDescent="0.2">
@@ -3038,7 +4084,7 @@
         <v>4</v>
       </c>
       <c r="I20" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="21" spans="2:9" x14ac:dyDescent="0.2">
@@ -3048,9 +4094,24 @@
       <c r="C21">
         <v>100</v>
       </c>
+      <c r="D21">
+        <v>32</v>
+      </c>
+      <c r="E21">
+        <v>44</v>
+      </c>
+      <c r="F21">
+        <v>20</v>
+      </c>
+      <c r="G21">
+        <v>2</v>
+      </c>
+      <c r="H21">
+        <v>2</v>
+      </c>
       <c r="I21">
         <f>SUM(D21:H21)</f>
-        <v>0</v>
+        <v>100</v>
       </c>
     </row>
     <row r="22" spans="2:9" x14ac:dyDescent="0.2">
@@ -3060,9 +4121,24 @@
       <c r="C22">
         <v>100</v>
       </c>
+      <c r="D22">
+        <v>31</v>
+      </c>
+      <c r="E22">
+        <v>36</v>
+      </c>
+      <c r="F22">
+        <v>22</v>
+      </c>
+      <c r="G22">
+        <v>8</v>
+      </c>
+      <c r="H22">
+        <v>1</v>
+      </c>
       <c r="I22">
         <f t="shared" ref="I22:I31" si="2">SUM(D22:H22)</f>
-        <v>0</v>
+        <v>98</v>
       </c>
     </row>
     <row r="23" spans="2:9" x14ac:dyDescent="0.2">
@@ -3072,9 +4148,24 @@
       <c r="C23">
         <v>100</v>
       </c>
+      <c r="D23">
+        <v>39</v>
+      </c>
+      <c r="E23">
+        <v>46</v>
+      </c>
+      <c r="F23">
+        <v>10</v>
+      </c>
+      <c r="G23">
+        <v>2</v>
+      </c>
+      <c r="H23">
+        <v>1</v>
+      </c>
       <c r="I23">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>98</v>
       </c>
     </row>
     <row r="24" spans="2:9" x14ac:dyDescent="0.2">
@@ -3084,9 +4175,24 @@
       <c r="C24">
         <v>100</v>
       </c>
+      <c r="D24">
+        <v>45</v>
+      </c>
+      <c r="E24">
+        <v>29</v>
+      </c>
+      <c r="F24">
+        <v>18</v>
+      </c>
+      <c r="G24">
+        <v>6</v>
+      </c>
+      <c r="H24">
+        <v>1</v>
+      </c>
       <c r="I24">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>99</v>
       </c>
     </row>
     <row r="25" spans="2:9" x14ac:dyDescent="0.2">
@@ -3096,9 +4202,24 @@
       <c r="C25">
         <v>100</v>
       </c>
+      <c r="D25">
+        <v>40</v>
+      </c>
+      <c r="E25">
+        <v>24</v>
+      </c>
+      <c r="F25">
+        <v>20</v>
+      </c>
+      <c r="G25">
+        <v>12</v>
+      </c>
+      <c r="H25">
+        <v>4</v>
+      </c>
       <c r="I25">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>100</v>
       </c>
     </row>
     <row r="26" spans="2:9" x14ac:dyDescent="0.2">
@@ -3108,9 +4229,24 @@
       <c r="C26">
         <v>100</v>
       </c>
+      <c r="D26">
+        <v>35</v>
+      </c>
+      <c r="E26">
+        <v>54</v>
+      </c>
+      <c r="F26">
+        <v>8</v>
+      </c>
+      <c r="G26">
+        <v>3</v>
+      </c>
+      <c r="H26">
+        <v>0</v>
+      </c>
       <c r="I26">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>100</v>
       </c>
     </row>
     <row r="27" spans="2:9" x14ac:dyDescent="0.2">
@@ -3120,9 +4256,24 @@
       <c r="C27">
         <v>100</v>
       </c>
+      <c r="D27">
+        <v>40</v>
+      </c>
+      <c r="E27">
+        <v>51</v>
+      </c>
+      <c r="F27">
+        <v>7</v>
+      </c>
+      <c r="G27">
+        <v>2</v>
+      </c>
+      <c r="H27">
+        <v>0</v>
+      </c>
       <c r="I27">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>100</v>
       </c>
     </row>
     <row r="28" spans="2:9" x14ac:dyDescent="0.2">
@@ -3132,9 +4283,24 @@
       <c r="C28">
         <v>100</v>
       </c>
+      <c r="D28">
+        <v>26</v>
+      </c>
+      <c r="E28">
+        <v>40</v>
+      </c>
+      <c r="F28">
+        <v>24</v>
+      </c>
+      <c r="G28">
+        <v>6</v>
+      </c>
+      <c r="H28">
+        <v>3</v>
+      </c>
       <c r="I28">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>99</v>
       </c>
     </row>
     <row r="29" spans="2:9" x14ac:dyDescent="0.2">
@@ -3144,9 +4310,24 @@
       <c r="C29">
         <v>100</v>
       </c>
+      <c r="D29">
+        <v>29</v>
+      </c>
+      <c r="E29">
+        <v>41</v>
+      </c>
+      <c r="F29">
+        <v>26</v>
+      </c>
+      <c r="G29">
+        <v>2</v>
+      </c>
+      <c r="H29">
+        <v>2</v>
+      </c>
       <c r="I29">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>100</v>
       </c>
     </row>
     <row r="30" spans="2:9" x14ac:dyDescent="0.2">
@@ -3156,43 +4337,58 @@
       <c r="C30">
         <v>100</v>
       </c>
+      <c r="D30">
+        <v>40</v>
+      </c>
+      <c r="E30">
+        <v>47</v>
+      </c>
+      <c r="F30">
+        <v>9</v>
+      </c>
+      <c r="G30">
+        <v>2</v>
+      </c>
+      <c r="H30">
+        <v>2</v>
+      </c>
       <c r="I30">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>100</v>
       </c>
     </row>
     <row r="31" spans="2:9" x14ac:dyDescent="0.2">
       <c r="C31" t="s">
-        <v>14</v>
-      </c>
-      <c r="D31" t="e">
+        <v>12</v>
+      </c>
+      <c r="D31">
         <f>AVERAGE(D21:D30)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="E31" t="e">
+        <v>35.700000000000003</v>
+      </c>
+      <c r="E31">
         <f>AVERAGE(E21:E30)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="F31" t="e">
+        <v>41.2</v>
+      </c>
+      <c r="F31">
         <f>AVERAGE(F21:F30)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="G31" t="e">
+        <v>16.399999999999999</v>
+      </c>
+      <c r="G31">
         <f>AVERAGE(G21:G30)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="H31" t="e">
+        <v>4.5</v>
+      </c>
+      <c r="H31">
         <f>AVERAGE(H21:H30)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="I31" t="e">
+        <v>1.6</v>
+      </c>
+      <c r="I31">
         <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
+        <v>99.4</v>
       </c>
     </row>
     <row r="33" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B33" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="34" spans="2:9" x14ac:dyDescent="0.2">
@@ -3218,7 +4414,7 @@
         <v>4</v>
       </c>
       <c r="I34" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="35" spans="2:9" x14ac:dyDescent="0.2">
@@ -3228,9 +4424,24 @@
       <c r="C35">
         <v>200</v>
       </c>
+      <c r="D35">
+        <v>48</v>
+      </c>
+      <c r="E35">
+        <v>68</v>
+      </c>
+      <c r="F35">
+        <v>66</v>
+      </c>
+      <c r="G35">
+        <v>14</v>
+      </c>
+      <c r="H35">
+        <v>4</v>
+      </c>
       <c r="I35">
         <f>SUM(D35:H35)</f>
-        <v>0</v>
+        <v>200</v>
       </c>
     </row>
     <row r="36" spans="2:9" x14ac:dyDescent="0.2">
@@ -3240,9 +4451,24 @@
       <c r="C36">
         <v>200</v>
       </c>
+      <c r="D36">
+        <v>71</v>
+      </c>
+      <c r="E36">
+        <v>83</v>
+      </c>
+      <c r="F36">
+        <v>33</v>
+      </c>
+      <c r="G36">
+        <v>8</v>
+      </c>
+      <c r="H36">
+        <v>4</v>
+      </c>
       <c r="I36">
         <f t="shared" ref="I36:I45" si="3">SUM(D36:H36)</f>
-        <v>0</v>
+        <v>199</v>
       </c>
     </row>
     <row r="37" spans="2:9" x14ac:dyDescent="0.2">
@@ -3252,9 +4478,24 @@
       <c r="C37">
         <v>200</v>
       </c>
+      <c r="D37">
+        <v>49</v>
+      </c>
+      <c r="E37">
+        <v>76</v>
+      </c>
+      <c r="F37">
+        <v>54</v>
+      </c>
+      <c r="G37">
+        <v>18</v>
+      </c>
+      <c r="H37">
+        <v>3</v>
+      </c>
       <c r="I37">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>200</v>
       </c>
     </row>
     <row r="38" spans="2:9" x14ac:dyDescent="0.2">
@@ -3264,9 +4505,24 @@
       <c r="C38">
         <v>200</v>
       </c>
+      <c r="D38">
+        <v>51</v>
+      </c>
+      <c r="E38">
+        <v>80</v>
+      </c>
+      <c r="F38">
+        <v>48</v>
+      </c>
+      <c r="G38">
+        <v>14</v>
+      </c>
+      <c r="H38">
+        <v>6</v>
+      </c>
       <c r="I38">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>199</v>
       </c>
     </row>
     <row r="39" spans="2:9" x14ac:dyDescent="0.2">
@@ -3276,9 +4532,24 @@
       <c r="C39">
         <v>200</v>
       </c>
+      <c r="D39">
+        <v>84</v>
+      </c>
+      <c r="E39">
+        <v>83</v>
+      </c>
+      <c r="F39">
+        <v>24</v>
+      </c>
+      <c r="G39">
+        <v>8</v>
+      </c>
+      <c r="H39">
+        <v>1</v>
+      </c>
       <c r="I39">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>200</v>
       </c>
     </row>
     <row r="40" spans="2:9" x14ac:dyDescent="0.2">
@@ -3288,9 +4559,24 @@
       <c r="C40">
         <v>200</v>
       </c>
+      <c r="D40">
+        <v>56</v>
+      </c>
+      <c r="E40">
+        <v>74</v>
+      </c>
+      <c r="F40">
+        <v>51</v>
+      </c>
+      <c r="G40">
+        <v>17</v>
+      </c>
+      <c r="H40">
+        <v>2</v>
+      </c>
       <c r="I40">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>200</v>
       </c>
     </row>
     <row r="41" spans="2:9" x14ac:dyDescent="0.2">
@@ -3300,9 +4586,24 @@
       <c r="C41">
         <v>200</v>
       </c>
+      <c r="D41">
+        <v>47</v>
+      </c>
+      <c r="E41">
+        <v>69</v>
+      </c>
+      <c r="F41">
+        <v>62</v>
+      </c>
+      <c r="G41">
+        <v>15</v>
+      </c>
+      <c r="H41">
+        <v>4</v>
+      </c>
       <c r="I41">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>197</v>
       </c>
     </row>
     <row r="42" spans="2:9" x14ac:dyDescent="0.2">
@@ -3312,9 +4613,24 @@
       <c r="C42">
         <v>200</v>
       </c>
+      <c r="D42">
+        <v>62</v>
+      </c>
+      <c r="E42">
+        <v>86</v>
+      </c>
+      <c r="F42">
+        <v>33</v>
+      </c>
+      <c r="G42">
+        <v>14</v>
+      </c>
+      <c r="H42">
+        <v>5</v>
+      </c>
       <c r="I42">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>200</v>
       </c>
     </row>
     <row r="43" spans="2:9" x14ac:dyDescent="0.2">
@@ -3324,9 +4640,24 @@
       <c r="C43">
         <v>200</v>
       </c>
+      <c r="D43">
+        <v>52</v>
+      </c>
+      <c r="E43">
+        <v>60</v>
+      </c>
+      <c r="F43">
+        <v>44</v>
+      </c>
+      <c r="G43">
+        <v>30</v>
+      </c>
+      <c r="H43">
+        <v>6</v>
+      </c>
       <c r="I43">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>192</v>
       </c>
     </row>
     <row r="44" spans="2:9" x14ac:dyDescent="0.2">
@@ -3336,38 +4667,53 @@
       <c r="C44">
         <v>200</v>
       </c>
+      <c r="D44">
+        <v>77</v>
+      </c>
+      <c r="E44">
+        <v>72</v>
+      </c>
+      <c r="F44">
+        <v>33</v>
+      </c>
+      <c r="G44">
+        <v>11</v>
+      </c>
+      <c r="H44">
+        <v>7</v>
+      </c>
       <c r="I44">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>200</v>
       </c>
     </row>
     <row r="45" spans="2:9" x14ac:dyDescent="0.2">
       <c r="C45" t="s">
-        <v>15</v>
-      </c>
-      <c r="D45" t="e">
+        <v>13</v>
+      </c>
+      <c r="D45">
         <f>AVERAGE(D35:D44)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="E45" t="e">
+        <v>59.7</v>
+      </c>
+      <c r="E45">
         <f>AVERAGE(E35:E44)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="F45" t="e">
+        <v>75.099999999999994</v>
+      </c>
+      <c r="F45">
         <f>AVERAGE(F35:F44)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="G45" t="e">
+        <v>44.8</v>
+      </c>
+      <c r="G45">
         <f>AVERAGE(G35:G44)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="H45" t="e">
+        <v>14.9</v>
+      </c>
+      <c r="H45">
         <f>AVERAGE(H35:H44)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="I45" t="e">
+        <v>4.2</v>
+      </c>
+      <c r="I45">
         <f t="shared" si="3"/>
-        <v>#DIV/0!</v>
+        <v>198.70000000000002</v>
       </c>
     </row>
   </sheetData>

--- a/Data.xlsx
+++ b/Data.xlsx
@@ -8,15 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/nejcjenko/Documents/GitHub/Pareto-fronte-v-vec-dimenzijah/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E04203D6-DF28-124F-B85F-96281E174527}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F2AA999B-CB02-484F-8EFA-F9A27F4061A9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="27640" windowHeight="15680" activeTab="3" xr2:uid="{70F57464-07EE-6D44-894E-A2427728D4C0}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="27640" windowHeight="15680" activeTab="4" xr2:uid="{70F57464-07EE-6D44-894E-A2427728D4C0}"/>
   </bookViews>
   <sheets>
     <sheet name="2 dimenziji" sheetId="2" r:id="rId1"/>
     <sheet name="3 dimenzije" sheetId="1" r:id="rId2"/>
     <sheet name="4 dimenzije" sheetId="3" r:id="rId3"/>
     <sheet name="5 dimenzij" sheetId="4" r:id="rId4"/>
+    <sheet name="Grafi" sheetId="5" r:id="rId5"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -122,12 +123,18 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -142,7 +149,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
@@ -153,6 +160,7 @@
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -168,6 +176,5417 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-GB"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-GB"/>
+              <a:t>Povprečno število točk v pareto frontah </a:t>
+            </a:r>
+          </a:p>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-GB"/>
+              <a:t> 5 dimenzij</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-SI"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="stacked"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'5 dimenzij'!$C$17</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Povprečje za 50 točk</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>'5 dimenzij'!$D$17:$H$17</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>20.100000000000001</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4.7777777777777777</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.1</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-5F2B-4347-88BA-42444D37D520}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'5 dimenzij'!$C$31</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Povprečje za 100 točk</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>'5 dimenzij'!$D$31:$H$31</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>35.700000000000003</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>41.2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>16.399999999999999</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4.5</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.6</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-5F2B-4347-88BA-42444D37D520}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'5 dimenzij'!$C$45</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Povprečje za 200 točk</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>'5 dimenzij'!$D$45:$H$45</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>59.7</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>75.099999999999994</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>44.8</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>14.9</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4.2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-5F2B-4347-88BA-42444D37D520}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="2120577088"/>
+        <c:axId val="2120578736"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="2120577088"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-SI"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="2120578736"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="2120578736"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="160"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="0.00" sourceLinked="0"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-SI"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="2120577088"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+        <c:majorUnit val="20"/>
+        <c:minorUnit val="4"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-SI"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="zero"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-SI"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-GB"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr marL="0" marR="0" indent="0" algn="ctr" defTabSz="914400" rtl="0" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+              <a:lnSpc>
+                <a:spcPct val="100000"/>
+              </a:lnSpc>
+              <a:spcBef>
+                <a:spcPts val="0"/>
+              </a:spcBef>
+              <a:spcAft>
+                <a:spcPts val="0"/>
+              </a:spcAft>
+              <a:buClrTx/>
+              <a:buSzTx/>
+              <a:buFontTx/>
+              <a:buNone/>
+              <a:tabLst/>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:sysClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-GB"/>
+              <a:t>Povprečno število točk v pareto frontah </a:t>
+            </a:r>
+          </a:p>
+          <a:p>
+            <a:pPr marL="0" marR="0" indent="0" algn="ctr" defTabSz="914400" rtl="0" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+              <a:lnSpc>
+                <a:spcPct val="100000"/>
+              </a:lnSpc>
+              <a:spcBef>
+                <a:spcPts val="0"/>
+              </a:spcBef>
+              <a:spcAft>
+                <a:spcPts val="0"/>
+              </a:spcAft>
+              <a:buClrTx/>
+              <a:buSzTx/>
+              <a:buFontTx/>
+              <a:buNone/>
+              <a:tabLst/>
+              <a:defRPr>
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:sysClr>
+                </a:solidFill>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-GB"/>
+              <a:t> 2 dimenziji</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr marL="0" marR="0" indent="0" algn="ctr" defTabSz="914400" rtl="0" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:sysClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-SI"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="stacked"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'2 dimenziji'!$C$17</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Povprečje za 50 točk</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>'2 dimenziji'!$D$17:$H$17</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>6.5</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>7.5</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>6.8</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>6.5</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-2BEA-2C43-A89B-57F7771ADE2C}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'2 dimenziji'!$C$31</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Povprečje za 100 točk</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>'2 dimenziji'!$D$31:$H$31</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>7.3</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>7.4</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>8.9</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>10.4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>11.5</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-2BEA-2C43-A89B-57F7771ADE2C}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'2 dimenziji'!$C$45</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Povprečje za 200 točk</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>'2 dimenziji'!$D$45:$H$45</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>10.1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>11.7</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>11.1</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>11.2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-2BEA-2C43-A89B-57F7771ADE2C}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="2085670032"/>
+        <c:axId val="2120282560"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="2085670032"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-SI"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="2120282560"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="2120282560"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-SI"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="2085670032"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-SI"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="zero"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-SI"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-GB"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr marL="0" marR="0" indent="0" algn="ctr" defTabSz="914400" rtl="0" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+              <a:lnSpc>
+                <a:spcPct val="100000"/>
+              </a:lnSpc>
+              <a:spcBef>
+                <a:spcPts val="0"/>
+              </a:spcBef>
+              <a:spcAft>
+                <a:spcPts val="0"/>
+              </a:spcAft>
+              <a:buClrTx/>
+              <a:buSzTx/>
+              <a:buFontTx/>
+              <a:buNone/>
+              <a:tabLst/>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:sysClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-GB"/>
+              <a:t>Povprečno število točk v pareto frontah </a:t>
+            </a:r>
+          </a:p>
+          <a:p>
+            <a:pPr marL="0" marR="0" indent="0" algn="ctr" defTabSz="914400" rtl="0" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+              <a:lnSpc>
+                <a:spcPct val="100000"/>
+              </a:lnSpc>
+              <a:spcBef>
+                <a:spcPts val="0"/>
+              </a:spcBef>
+              <a:spcAft>
+                <a:spcPts val="0"/>
+              </a:spcAft>
+              <a:buClrTx/>
+              <a:buSzTx/>
+              <a:buFontTx/>
+              <a:buNone/>
+              <a:tabLst/>
+              <a:defRPr>
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:sysClr>
+                </a:solidFill>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-GB"/>
+              <a:t> 3 dimenzije</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr marL="0" marR="0" indent="0" algn="ctr" defTabSz="914400" rtl="0" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:sysClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-SI"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="stacked"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'3 dimenzije'!$C$17</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Povprečje za 50 točk</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>'3 dimenzije'!$D$17:$H$17</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>14.8</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>6.2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>3.4</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-098B-1949-9B4F-2E9800D8520F}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'3 dimenzije'!$C$31</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Povprečje za 100 točk</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>'3 dimenzije'!$D$31:$H$31</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>15.4</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>19.899999999999999</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>19.899999999999999</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>17.8</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>11.4</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-098B-1949-9B4F-2E9800D8520F}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'3 dimenzije'!$C$45</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Povprečje za 200 točk</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>'3 dimenzije'!$D$45:$H$45</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>19.399999999999999</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>24.9</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>30.3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>31.9</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>27.9</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-098B-1949-9B4F-2E9800D8520F}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="2121909184"/>
+        <c:axId val="2102368368"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="2121909184"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-SI"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="2102368368"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="2102368368"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-SI"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="2121909184"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-SI"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="zero"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-SI"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-GB"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr marL="0" marR="0" indent="0" algn="ctr" defTabSz="914400" rtl="0" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+              <a:lnSpc>
+                <a:spcPct val="100000"/>
+              </a:lnSpc>
+              <a:spcBef>
+                <a:spcPts val="0"/>
+              </a:spcBef>
+              <a:spcAft>
+                <a:spcPts val="0"/>
+              </a:spcAft>
+              <a:buClrTx/>
+              <a:buSzTx/>
+              <a:buFontTx/>
+              <a:buNone/>
+              <a:tabLst/>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:sysClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-GB"/>
+              <a:t>Povprečno število točk v pareto frontah </a:t>
+            </a:r>
+          </a:p>
+          <a:p>
+            <a:pPr marL="0" marR="0" indent="0" algn="ctr" defTabSz="914400" rtl="0" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+              <a:lnSpc>
+                <a:spcPct val="100000"/>
+              </a:lnSpc>
+              <a:spcBef>
+                <a:spcPts val="0"/>
+              </a:spcBef>
+              <a:spcAft>
+                <a:spcPts val="0"/>
+              </a:spcAft>
+              <a:buClrTx/>
+              <a:buSzTx/>
+              <a:buFontTx/>
+              <a:buNone/>
+              <a:tabLst/>
+              <a:defRPr>
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:sysClr>
+                </a:solidFill>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-GB"/>
+              <a:t> 4 dimenzije</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr marL="0" marR="0" indent="0" algn="ctr" defTabSz="914400" rtl="0" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:sysClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-SI"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="stacked"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'4 dimenzije'!$C$17</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Povprečje za 50 točk</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>'4 dimenzije'!$D$17:$H$17</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>20.444444444444443</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>18.888888888888889</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>7.4444444444444446</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2.4444444444444446</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.66666666666666663</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-3357-E142-8BCA-33036B68725D}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'4 dimenzije'!$C$31</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Povprečje za 100 točk</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>'4 dimenzije'!$D$31:$H$31</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>23.6</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>37.4</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>25.4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>7.2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4.2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-3357-E142-8BCA-33036B68725D}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'4 dimenzije'!$C$45</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Povprečje za 200 točk</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>'4 dimenzije'!$D$45:$H$45</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>34.4</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>50.4</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>52.9</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>34.200000000000003</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>14.1</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-3357-E142-8BCA-33036B68725D}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="2120021968"/>
+        <c:axId val="2098122000"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="2120021968"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-SI"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="2098122000"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="2098122000"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="0.00" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-SI"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="2120021968"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-SI"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="zero"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-SI"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-GB"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-GB"/>
+              <a:t>Povprečno število točk v pareto frontah </a:t>
+            </a:r>
+          </a:p>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-GB"/>
+              <a:t> 5 dimenzij</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-SI"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="stacked"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'5 dimenzij'!$C$17</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Povprečje za 50 točk</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>'5 dimenzij'!$D$17:$H$17</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>20.100000000000001</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4.7777777777777777</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.1</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-479A-0048-AF40-14E2D6D20E51}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'5 dimenzij'!$C$31</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Povprečje za 100 točk</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>'5 dimenzij'!$D$31:$H$31</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>35.700000000000003</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>41.2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>16.399999999999999</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4.5</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.6</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-479A-0048-AF40-14E2D6D20E51}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'5 dimenzij'!$C$45</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Povprečje za 200 točk</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>'5 dimenzij'!$D$45:$H$45</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>59.7</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>75.099999999999994</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>44.8</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>14.9</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4.2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-479A-0048-AF40-14E2D6D20E51}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="2120577088"/>
+        <c:axId val="2120578736"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="2120577088"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-SI"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="2120578736"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="2120578736"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="160"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="0.00" sourceLinked="0"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-SI"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="2120577088"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+        <c:majorUnit val="20"/>
+        <c:minorUnit val="4"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-SI"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="zero"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-SI"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors5.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style5.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>825500</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>139700</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>635000</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Chart 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{346C3005-FAB9-F34A-BEC9-F95F76B15697}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>12700</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>444500</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>25400</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C736574A-0C58-4246-BEA6-D8305D544AEE}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>381000</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>25400</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Chart 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2EBF8BCB-5B49-0740-A73D-72D8C7106063}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>12700</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>12700</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>457200</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>165100</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="4" name="Chart 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{08C19071-63F8-8842-8AFF-0757EEAD16D5}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>12700</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>12700</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>406400</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>165100</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="5" name="Chart 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8946EE11-B951-7843-978E-4A2551BFA215}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId4"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -469,8 +5888,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3030A96B-6BCE-A34B-9F15-40CDBF632279}">
   <dimension ref="B2:I45"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F3" sqref="F3"/>
+    <sheetView topLeftCell="A30" workbookViewId="0">
+      <selection activeCell="I29" sqref="I29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1498,8 +6917,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FE1C919C-7229-7041-875E-3BE3CDC2D46A}">
   <dimension ref="B2:I45"/>
   <sheetViews>
-    <sheetView topLeftCell="A33" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:C3"/>
+    <sheetView topLeftCell="A26" workbookViewId="0">
+      <selection activeCell="C17" activeCellId="2" sqref="C45:H45 C31:H31 C17:H17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2159,7 +7578,7 @@
     </row>
     <row r="31" spans="2:9" x14ac:dyDescent="0.2">
       <c r="C31" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="D31">
         <f>AVERAGE(D21:D30)</f>
@@ -2489,7 +7908,7 @@
     </row>
     <row r="45" spans="2:9" x14ac:dyDescent="0.2">
       <c r="C45" t="s">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="D45">
         <f>AVERAGE(D35:D44)</f>
@@ -2528,8 +7947,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{13CB01BC-5CEE-CD43-8711-39682CA26EF0}">
   <dimension ref="B2:K47"/>
   <sheetViews>
-    <sheetView topLeftCell="A15" workbookViewId="0">
-      <selection activeCell="I9" sqref="I9"/>
+    <sheetView topLeftCell="A9" workbookViewId="0">
+      <selection activeCell="C17" activeCellId="2" sqref="C31:H31 C45:H45 C17:H17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -3702,8 +9121,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E6466265-9058-6240-8DF8-1E7AB3B7A55E}">
   <dimension ref="B2:I45"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="J55" sqref="J55"/>
+    <sheetView topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="K21" sqref="K21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -4721,5 +10140,534 @@
     <mergeCell ref="B2:C3"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8211CCAC-B6B2-C840-8888-235AA45152A3}">
+  <dimension ref="B2:O33"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="P16" sqref="P16"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="2" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="B2" s="6"/>
+      <c r="C2" s="6"/>
+      <c r="D2" s="6"/>
+      <c r="E2" s="6"/>
+      <c r="F2" s="6"/>
+      <c r="G2" s="6"/>
+      <c r="H2" s="6"/>
+      <c r="I2" s="6"/>
+      <c r="J2" s="6"/>
+      <c r="K2" s="6"/>
+      <c r="L2" s="6"/>
+      <c r="M2" s="6"/>
+      <c r="N2" s="6"/>
+      <c r="O2" s="6"/>
+    </row>
+    <row r="3" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="B3" s="6"/>
+      <c r="C3" s="6"/>
+      <c r="D3" s="6"/>
+      <c r="E3" s="6"/>
+      <c r="F3" s="6"/>
+      <c r="G3" s="6"/>
+      <c r="H3" s="6"/>
+      <c r="I3" s="6"/>
+      <c r="J3" s="6"/>
+      <c r="K3" s="6"/>
+      <c r="L3" s="6"/>
+      <c r="M3" s="6"/>
+      <c r="N3" s="6"/>
+      <c r="O3" s="6"/>
+    </row>
+    <row r="4" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="B4" s="6"/>
+      <c r="C4" s="6"/>
+      <c r="D4" s="6"/>
+      <c r="E4" s="6"/>
+      <c r="F4" s="6"/>
+      <c r="G4" s="6"/>
+      <c r="H4" s="6"/>
+      <c r="I4" s="6"/>
+      <c r="J4" s="6"/>
+      <c r="K4" s="6"/>
+      <c r="L4" s="6"/>
+      <c r="M4" s="6"/>
+      <c r="N4" s="6"/>
+      <c r="O4" s="6"/>
+    </row>
+    <row r="5" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="B5" s="6"/>
+      <c r="C5" s="6"/>
+      <c r="D5" s="6"/>
+      <c r="E5" s="6"/>
+      <c r="F5" s="6"/>
+      <c r="G5" s="6"/>
+      <c r="H5" s="6"/>
+      <c r="I5" s="6"/>
+      <c r="J5" s="6"/>
+      <c r="K5" s="6"/>
+      <c r="L5" s="6"/>
+      <c r="M5" s="6"/>
+      <c r="N5" s="6"/>
+      <c r="O5" s="6"/>
+    </row>
+    <row r="6" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="B6" s="6"/>
+      <c r="C6" s="6"/>
+      <c r="D6" s="6"/>
+      <c r="E6" s="6"/>
+      <c r="F6" s="6"/>
+      <c r="G6" s="6"/>
+      <c r="H6" s="6"/>
+      <c r="I6" s="6"/>
+      <c r="J6" s="6"/>
+      <c r="K6" s="6"/>
+      <c r="L6" s="6"/>
+      <c r="M6" s="6"/>
+      <c r="N6" s="6"/>
+      <c r="O6" s="6"/>
+    </row>
+    <row r="7" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="B7" s="6"/>
+      <c r="C7" s="6"/>
+      <c r="D7" s="6"/>
+      <c r="E7" s="6"/>
+      <c r="F7" s="6"/>
+      <c r="G7" s="6"/>
+      <c r="H7" s="6"/>
+      <c r="I7" s="6"/>
+      <c r="J7" s="6"/>
+      <c r="K7" s="6"/>
+      <c r="L7" s="6"/>
+      <c r="M7" s="6"/>
+      <c r="N7" s="6"/>
+      <c r="O7" s="6"/>
+    </row>
+    <row r="8" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="B8" s="6"/>
+      <c r="C8" s="6"/>
+      <c r="D8" s="6"/>
+      <c r="E8" s="6"/>
+      <c r="F8" s="6"/>
+      <c r="G8" s="6"/>
+      <c r="H8" s="6"/>
+      <c r="I8" s="6"/>
+      <c r="J8" s="6"/>
+      <c r="K8" s="6"/>
+      <c r="L8" s="6"/>
+      <c r="M8" s="6"/>
+      <c r="N8" s="6"/>
+      <c r="O8" s="6"/>
+    </row>
+    <row r="9" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="B9" s="6"/>
+      <c r="C9" s="6"/>
+      <c r="D9" s="6"/>
+      <c r="E9" s="6"/>
+      <c r="F9" s="6"/>
+      <c r="G9" s="6"/>
+      <c r="H9" s="6"/>
+      <c r="I9" s="6"/>
+      <c r="J9" s="6"/>
+      <c r="K9" s="6"/>
+      <c r="L9" s="6"/>
+      <c r="M9" s="6"/>
+      <c r="N9" s="6"/>
+      <c r="O9" s="6"/>
+    </row>
+    <row r="10" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="B10" s="6"/>
+      <c r="C10" s="6"/>
+      <c r="D10" s="6"/>
+      <c r="E10" s="6"/>
+      <c r="F10" s="6"/>
+      <c r="G10" s="6"/>
+      <c r="H10" s="6"/>
+      <c r="I10" s="6"/>
+      <c r="J10" s="6"/>
+      <c r="K10" s="6"/>
+      <c r="L10" s="6"/>
+      <c r="M10" s="6"/>
+      <c r="N10" s="6"/>
+      <c r="O10" s="6"/>
+    </row>
+    <row r="11" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="B11" s="6"/>
+      <c r="C11" s="6"/>
+      <c r="D11" s="6"/>
+      <c r="E11" s="6"/>
+      <c r="F11" s="6"/>
+      <c r="G11" s="6"/>
+      <c r="H11" s="6"/>
+      <c r="I11" s="6"/>
+      <c r="J11" s="6"/>
+      <c r="K11" s="6"/>
+      <c r="L11" s="6"/>
+      <c r="M11" s="6"/>
+      <c r="N11" s="6"/>
+      <c r="O11" s="6"/>
+    </row>
+    <row r="12" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="B12" s="6"/>
+      <c r="C12" s="6"/>
+      <c r="D12" s="6"/>
+      <c r="E12" s="6"/>
+      <c r="F12" s="6"/>
+      <c r="G12" s="6"/>
+      <c r="H12" s="6"/>
+      <c r="I12" s="6"/>
+      <c r="J12" s="6"/>
+      <c r="K12" s="6"/>
+      <c r="L12" s="6"/>
+      <c r="M12" s="6"/>
+      <c r="N12" s="6"/>
+      <c r="O12" s="6"/>
+    </row>
+    <row r="13" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="B13" s="6"/>
+      <c r="C13" s="6"/>
+      <c r="D13" s="6"/>
+      <c r="E13" s="6"/>
+      <c r="F13" s="6"/>
+      <c r="G13" s="6"/>
+      <c r="H13" s="6"/>
+      <c r="I13" s="6"/>
+      <c r="J13" s="6"/>
+      <c r="K13" s="6"/>
+      <c r="L13" s="6"/>
+      <c r="M13" s="6"/>
+      <c r="N13" s="6"/>
+      <c r="O13" s="6"/>
+    </row>
+    <row r="14" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="B14" s="6"/>
+      <c r="C14" s="6"/>
+      <c r="D14" s="6"/>
+      <c r="E14" s="6"/>
+      <c r="F14" s="6"/>
+      <c r="G14" s="6"/>
+      <c r="H14" s="6"/>
+      <c r="I14" s="6"/>
+      <c r="J14" s="6"/>
+      <c r="K14" s="6"/>
+      <c r="L14" s="6"/>
+      <c r="M14" s="6"/>
+      <c r="N14" s="6"/>
+      <c r="O14" s="6"/>
+    </row>
+    <row r="15" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="B15" s="6"/>
+      <c r="C15" s="6"/>
+      <c r="D15" s="6"/>
+      <c r="E15" s="6"/>
+      <c r="F15" s="6"/>
+      <c r="G15" s="6"/>
+      <c r="H15" s="6"/>
+      <c r="I15" s="6"/>
+      <c r="J15" s="6"/>
+      <c r="K15" s="6"/>
+      <c r="L15" s="6"/>
+      <c r="M15" s="6"/>
+      <c r="N15" s="6"/>
+      <c r="O15" s="6"/>
+    </row>
+    <row r="16" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="B16" s="6"/>
+      <c r="C16" s="6"/>
+      <c r="D16" s="6"/>
+      <c r="E16" s="6"/>
+      <c r="F16" s="6"/>
+      <c r="G16" s="6"/>
+      <c r="H16" s="6"/>
+      <c r="I16" s="6"/>
+      <c r="J16" s="6"/>
+      <c r="K16" s="6"/>
+      <c r="L16" s="6"/>
+      <c r="M16" s="6"/>
+      <c r="N16" s="6"/>
+      <c r="O16" s="6"/>
+    </row>
+    <row r="17" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="B17" s="6"/>
+      <c r="C17" s="6"/>
+      <c r="D17" s="6"/>
+      <c r="E17" s="6"/>
+      <c r="F17" s="6"/>
+      <c r="G17" s="6"/>
+      <c r="H17" s="6"/>
+      <c r="I17" s="6"/>
+      <c r="J17" s="6"/>
+      <c r="K17" s="6"/>
+      <c r="L17" s="6"/>
+      <c r="M17" s="6"/>
+      <c r="N17" s="6"/>
+      <c r="O17" s="6"/>
+    </row>
+    <row r="18" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="B18" s="6"/>
+      <c r="C18" s="6"/>
+      <c r="D18" s="6"/>
+      <c r="E18" s="6"/>
+      <c r="F18" s="6"/>
+      <c r="G18" s="6"/>
+      <c r="H18" s="6"/>
+      <c r="I18" s="6"/>
+      <c r="J18" s="6"/>
+      <c r="K18" s="6"/>
+      <c r="L18" s="6"/>
+      <c r="M18" s="6"/>
+      <c r="N18" s="6"/>
+      <c r="O18" s="6"/>
+    </row>
+    <row r="19" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="B19" s="6"/>
+      <c r="C19" s="6"/>
+      <c r="D19" s="6"/>
+      <c r="E19" s="6"/>
+      <c r="F19" s="6"/>
+      <c r="G19" s="6"/>
+      <c r="H19" s="6"/>
+      <c r="I19" s="6"/>
+      <c r="J19" s="6"/>
+      <c r="K19" s="6"/>
+      <c r="L19" s="6"/>
+      <c r="M19" s="6"/>
+      <c r="N19" s="6"/>
+      <c r="O19" s="6"/>
+    </row>
+    <row r="20" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="B20" s="6"/>
+      <c r="C20" s="6"/>
+      <c r="D20" s="6"/>
+      <c r="E20" s="6"/>
+      <c r="F20" s="6"/>
+      <c r="G20" s="6"/>
+      <c r="H20" s="6"/>
+      <c r="I20" s="6"/>
+      <c r="J20" s="6"/>
+      <c r="K20" s="6"/>
+      <c r="L20" s="6"/>
+      <c r="M20" s="6"/>
+      <c r="N20" s="6"/>
+      <c r="O20" s="6"/>
+    </row>
+    <row r="21" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="B21" s="6"/>
+      <c r="C21" s="6"/>
+      <c r="D21" s="6"/>
+      <c r="E21" s="6"/>
+      <c r="F21" s="6"/>
+      <c r="G21" s="6"/>
+      <c r="H21" s="6"/>
+      <c r="I21" s="6"/>
+      <c r="J21" s="6"/>
+      <c r="K21" s="6"/>
+      <c r="L21" s="6"/>
+      <c r="M21" s="6"/>
+      <c r="N21" s="6"/>
+      <c r="O21" s="6"/>
+    </row>
+    <row r="22" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="B22" s="6"/>
+      <c r="C22" s="6"/>
+      <c r="D22" s="6"/>
+      <c r="E22" s="6"/>
+      <c r="F22" s="6"/>
+      <c r="G22" s="6"/>
+      <c r="H22" s="6"/>
+      <c r="I22" s="6"/>
+      <c r="J22" s="6"/>
+      <c r="K22" s="6"/>
+      <c r="L22" s="6"/>
+      <c r="M22" s="6"/>
+      <c r="N22" s="6"/>
+      <c r="O22" s="6"/>
+    </row>
+    <row r="23" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="B23" s="6"/>
+      <c r="C23" s="6"/>
+      <c r="D23" s="6"/>
+      <c r="E23" s="6"/>
+      <c r="F23" s="6"/>
+      <c r="G23" s="6"/>
+      <c r="H23" s="6"/>
+      <c r="I23" s="6"/>
+      <c r="J23" s="6"/>
+      <c r="K23" s="6"/>
+      <c r="L23" s="6"/>
+      <c r="M23" s="6"/>
+      <c r="N23" s="6"/>
+      <c r="O23" s="6"/>
+    </row>
+    <row r="24" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="B24" s="6"/>
+      <c r="C24" s="6"/>
+      <c r="D24" s="6"/>
+      <c r="E24" s="6"/>
+      <c r="F24" s="6"/>
+      <c r="G24" s="6"/>
+      <c r="H24" s="6"/>
+      <c r="I24" s="6"/>
+      <c r="J24" s="6"/>
+      <c r="K24" s="6"/>
+      <c r="L24" s="6"/>
+      <c r="M24" s="6"/>
+      <c r="N24" s="6"/>
+      <c r="O24" s="6"/>
+    </row>
+    <row r="25" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="B25" s="6"/>
+      <c r="C25" s="6"/>
+      <c r="D25" s="6"/>
+      <c r="E25" s="6"/>
+      <c r="F25" s="6"/>
+      <c r="G25" s="6"/>
+      <c r="H25" s="6"/>
+      <c r="I25" s="6"/>
+      <c r="J25" s="6"/>
+      <c r="K25" s="6"/>
+      <c r="L25" s="6"/>
+      <c r="M25" s="6"/>
+      <c r="N25" s="6"/>
+      <c r="O25" s="6"/>
+    </row>
+    <row r="26" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="B26" s="6"/>
+      <c r="C26" s="6"/>
+      <c r="D26" s="6"/>
+      <c r="E26" s="6"/>
+      <c r="F26" s="6"/>
+      <c r="G26" s="6"/>
+      <c r="H26" s="6"/>
+      <c r="I26" s="6"/>
+      <c r="J26" s="6"/>
+      <c r="K26" s="6"/>
+      <c r="L26" s="6"/>
+      <c r="M26" s="6"/>
+      <c r="N26" s="6"/>
+      <c r="O26" s="6"/>
+    </row>
+    <row r="27" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="B27" s="6"/>
+      <c r="C27" s="6"/>
+      <c r="D27" s="6"/>
+      <c r="E27" s="6"/>
+      <c r="F27" s="6"/>
+      <c r="G27" s="6"/>
+      <c r="H27" s="6"/>
+      <c r="I27" s="6"/>
+      <c r="J27" s="6"/>
+      <c r="K27" s="6"/>
+      <c r="L27" s="6"/>
+      <c r="M27" s="6"/>
+      <c r="N27" s="6"/>
+      <c r="O27" s="6"/>
+    </row>
+    <row r="28" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="B28" s="6"/>
+      <c r="C28" s="6"/>
+      <c r="D28" s="6"/>
+      <c r="E28" s="6"/>
+      <c r="F28" s="6"/>
+      <c r="G28" s="6"/>
+      <c r="H28" s="6"/>
+      <c r="I28" s="6"/>
+      <c r="J28" s="6"/>
+      <c r="K28" s="6"/>
+      <c r="L28" s="6"/>
+      <c r="M28" s="6"/>
+      <c r="N28" s="6"/>
+      <c r="O28" s="6"/>
+    </row>
+    <row r="29" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="B29" s="6"/>
+      <c r="C29" s="6"/>
+      <c r="D29" s="6"/>
+      <c r="E29" s="6"/>
+      <c r="F29" s="6"/>
+      <c r="G29" s="6"/>
+      <c r="H29" s="6"/>
+      <c r="I29" s="6"/>
+      <c r="J29" s="6"/>
+      <c r="K29" s="6"/>
+      <c r="L29" s="6"/>
+      <c r="M29" s="6"/>
+      <c r="N29" s="6"/>
+      <c r="O29" s="6"/>
+    </row>
+    <row r="30" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="B30" s="6"/>
+      <c r="C30" s="6"/>
+      <c r="D30" s="6"/>
+      <c r="E30" s="6"/>
+      <c r="F30" s="6"/>
+      <c r="G30" s="6"/>
+      <c r="H30" s="6"/>
+      <c r="I30" s="6"/>
+      <c r="J30" s="6"/>
+      <c r="K30" s="6"/>
+      <c r="L30" s="6"/>
+      <c r="M30" s="6"/>
+      <c r="N30" s="6"/>
+      <c r="O30" s="6"/>
+    </row>
+    <row r="31" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="B31" s="6"/>
+      <c r="C31" s="6"/>
+      <c r="D31" s="6"/>
+      <c r="E31" s="6"/>
+      <c r="F31" s="6"/>
+      <c r="G31" s="6"/>
+      <c r="H31" s="6"/>
+      <c r="I31" s="6"/>
+      <c r="J31" s="6"/>
+      <c r="K31" s="6"/>
+      <c r="L31" s="6"/>
+      <c r="M31" s="6"/>
+      <c r="N31" s="6"/>
+      <c r="O31" s="6"/>
+    </row>
+    <row r="32" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="B32" s="6"/>
+      <c r="C32" s="6"/>
+      <c r="D32" s="6"/>
+      <c r="E32" s="6"/>
+      <c r="F32" s="6"/>
+      <c r="G32" s="6"/>
+      <c r="H32" s="6"/>
+      <c r="I32" s="6"/>
+      <c r="J32" s="6"/>
+      <c r="K32" s="6"/>
+      <c r="L32" s="6"/>
+      <c r="M32" s="6"/>
+      <c r="N32" s="6"/>
+      <c r="O32" s="6"/>
+    </row>
+    <row r="33" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="B33" s="6"/>
+      <c r="C33" s="6"/>
+      <c r="D33" s="6"/>
+      <c r="E33" s="6"/>
+      <c r="F33" s="6"/>
+      <c r="G33" s="6"/>
+      <c r="H33" s="6"/>
+      <c r="I33" s="6"/>
+      <c r="J33" s="6"/>
+      <c r="K33" s="6"/>
+      <c r="L33" s="6"/>
+      <c r="M33" s="6"/>
+      <c r="N33" s="6"/>
+      <c r="O33" s="6"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
--- a/Data.xlsx
+++ b/Data.xlsx
@@ -8,16 +8,17 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/nejcjenko/Documents/GitHub/Pareto-fronte-v-vec-dimenzijah/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F2AA999B-CB02-484F-8EFA-F9A27F4061A9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EBEC2E8B-29C7-654A-9259-116CDFA198C2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="27640" windowHeight="15680" activeTab="4" xr2:uid="{70F57464-07EE-6D44-894E-A2427728D4C0}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="27640" windowHeight="15680" activeTab="5" xr2:uid="{70F57464-07EE-6D44-894E-A2427728D4C0}"/>
   </bookViews>
   <sheets>
     <sheet name="2 dimenziji" sheetId="2" r:id="rId1"/>
     <sheet name="3 dimenzije" sheetId="1" r:id="rId2"/>
     <sheet name="4 dimenzije" sheetId="3" r:id="rId3"/>
     <sheet name="5 dimenzij" sheetId="4" r:id="rId4"/>
-    <sheet name="Grafi" sheetId="5" r:id="rId5"/>
+    <sheet name="Grafi 1" sheetId="5" r:id="rId5"/>
+    <sheet name="krogla vs kocka" sheetId="6" r:id="rId6"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -38,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="124" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="142" uniqueCount="29">
   <si>
     <t>1. pareto fornta</t>
   </si>
@@ -93,12 +94,45 @@
   <si>
     <t>5 dimenzij krogla</t>
   </si>
+  <si>
+    <t>Primerjava krogle in kocke</t>
+  </si>
+  <si>
+    <t>1. Pareto fronta</t>
+  </si>
+  <si>
+    <t>2. Pareto fronta</t>
+  </si>
+  <si>
+    <t>3. Pareto fronta</t>
+  </si>
+  <si>
+    <t>4. Pareto fronta</t>
+  </si>
+  <si>
+    <t>5. Pareto Fronta</t>
+  </si>
+  <si>
+    <t>Za vsako 20 poskusov po 500 točk 5 dimenzij</t>
+  </si>
+  <si>
+    <t>KROGLA</t>
+  </si>
+  <si>
+    <t>št. Poskusa</t>
+  </si>
+  <si>
+    <t>Povprečno</t>
+  </si>
+  <si>
+    <t>KOCKA</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -122,6 +156,14 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="22"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -137,7 +179,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -145,11 +187,97 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
@@ -161,6 +289,33 @@
     </xf>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2611,6 +2766,401 @@
 </c:chartSpace>
 </file>
 
+<file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-GB"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-GB"/>
+              <a:t>Povprečno</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-GB" baseline="0"/>
+              <a:t> število točk v prvih petih Pareto forntah</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-GB"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-SI"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'krogla vs kocka'!$C$30</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>KROGLA</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>'krogla vs kocka'!$D$30:$H$30</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>90.35</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>147.30000000000001</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>131.75</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>80.5</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>29</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-3A10-484A-80ED-C43FD13CE886}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'krogla vs kocka'!$C$55</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>KOCKA</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>'krogla vs kocka'!$D$55:$H$55</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>118.75</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>158.19999999999999</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>123.25</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>68.8</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>26.05</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-3A10-484A-80ED-C43FD13CE886}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="2120282560"/>
+        <c:axId val="2122705600"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="2120282560"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-SI"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="2122705600"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="2122705600"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-SI"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="2120282560"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-SI"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-SI"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
 <file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
@@ -2811,6 +3361,46 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors6.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
   <cs:axisTitle>
@@ -4876,6 +5466,522 @@
 </file>
 
 <file path=xl/charts/style5.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style6.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -5581,6 +6687,47 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId4"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>1092200</xdr:colOff>
+      <xdr:row>56</xdr:row>
+      <xdr:rowOff>69850</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>571500</xdr:colOff>
+      <xdr:row>75</xdr:row>
+      <xdr:rowOff>190500</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="4" name="Chart 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0A16E84D-6A07-8240-BB04-FBCB725D9A83}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -5888,7 +7035,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3030A96B-6BCE-A34B-9F15-40CDBF632279}">
   <dimension ref="B2:I45"/>
   <sheetViews>
-    <sheetView topLeftCell="A30" workbookViewId="0">
+    <sheetView topLeftCell="A17" workbookViewId="0">
       <selection activeCell="I29" sqref="I29"/>
     </sheetView>
   </sheetViews>
@@ -10148,7 +11295,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8211CCAC-B6B2-C840-8888-235AA45152A3}">
   <dimension ref="B2:O33"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="P16" sqref="P16"/>
     </sheetView>
   </sheetViews>
@@ -10670,4 +11817,1118 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C9DC9115-B667-9F4D-A319-7B191B68D1E6}">
+  <dimension ref="B2:I55"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A24" workbookViewId="0">
+      <selection activeCell="M66" sqref="M66"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="3" max="3" width="16.1640625" customWidth="1"/>
+    <col min="4" max="8" width="13.83203125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:9" ht="17" thickBot="1" x14ac:dyDescent="0.25"/>
+    <row r="3" spans="2:9" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B3" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="C3" s="8"/>
+      <c r="D3" s="8"/>
+      <c r="E3" s="8"/>
+      <c r="F3" s="9"/>
+    </row>
+    <row r="4" spans="2:9" ht="16" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B4" s="10"/>
+      <c r="C4" s="11"/>
+      <c r="D4" s="11"/>
+      <c r="E4" s="11"/>
+      <c r="F4" s="12"/>
+    </row>
+    <row r="5" spans="2:9" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B5" s="13" t="s">
+        <v>24</v>
+      </c>
+      <c r="C5" s="14"/>
+      <c r="D5" s="14"/>
+      <c r="E5" s="14"/>
+      <c r="F5" s="15"/>
+    </row>
+    <row r="9" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="C9" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="F9" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="G9" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="H9" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="10" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="C10">
+        <v>1</v>
+      </c>
+      <c r="D10">
+        <v>75</v>
+      </c>
+      <c r="E10">
+        <v>119</v>
+      </c>
+      <c r="F10">
+        <v>166</v>
+      </c>
+      <c r="G10">
+        <v>86</v>
+      </c>
+      <c r="H10">
+        <v>31</v>
+      </c>
+      <c r="I10">
+        <f>SUM(D10:H10)</f>
+        <v>477</v>
+      </c>
+    </row>
+    <row r="11" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="C11">
+        <v>2</v>
+      </c>
+      <c r="D11">
+        <v>92</v>
+      </c>
+      <c r="E11">
+        <v>172</v>
+      </c>
+      <c r="F11">
+        <v>146</v>
+      </c>
+      <c r="G11">
+        <v>59</v>
+      </c>
+      <c r="H11">
+        <v>12</v>
+      </c>
+      <c r="I11">
+        <f t="shared" ref="I11:I30" si="0">SUM(D11:H11)</f>
+        <v>481</v>
+      </c>
+    </row>
+    <row r="12" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="C12">
+        <v>3</v>
+      </c>
+      <c r="D12">
+        <v>76</v>
+      </c>
+      <c r="E12">
+        <v>120</v>
+      </c>
+      <c r="F12">
+        <v>112</v>
+      </c>
+      <c r="G12">
+        <v>101</v>
+      </c>
+      <c r="H12">
+        <v>62</v>
+      </c>
+      <c r="I12">
+        <f t="shared" si="0"/>
+        <v>471</v>
+      </c>
+    </row>
+    <row r="13" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="C13">
+        <v>4</v>
+      </c>
+      <c r="D13">
+        <v>94</v>
+      </c>
+      <c r="E13">
+        <v>128</v>
+      </c>
+      <c r="F13">
+        <v>137</v>
+      </c>
+      <c r="G13">
+        <v>86</v>
+      </c>
+      <c r="H13">
+        <v>33</v>
+      </c>
+      <c r="I13">
+        <f t="shared" si="0"/>
+        <v>478</v>
+      </c>
+    </row>
+    <row r="14" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="C14">
+        <v>5</v>
+      </c>
+      <c r="D14">
+        <v>100</v>
+      </c>
+      <c r="E14">
+        <v>128</v>
+      </c>
+      <c r="F14">
+        <v>138</v>
+      </c>
+      <c r="G14">
+        <v>90</v>
+      </c>
+      <c r="H14">
+        <v>28</v>
+      </c>
+      <c r="I14">
+        <f t="shared" si="0"/>
+        <v>484</v>
+      </c>
+    </row>
+    <row r="15" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="C15">
+        <v>6</v>
+      </c>
+      <c r="D15">
+        <v>103</v>
+      </c>
+      <c r="E15">
+        <v>174</v>
+      </c>
+      <c r="F15">
+        <v>110</v>
+      </c>
+      <c r="G15">
+        <v>67</v>
+      </c>
+      <c r="H15">
+        <v>20</v>
+      </c>
+      <c r="I15">
+        <f t="shared" si="0"/>
+        <v>474</v>
+      </c>
+    </row>
+    <row r="16" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="C16">
+        <v>7</v>
+      </c>
+      <c r="D16">
+        <v>95</v>
+      </c>
+      <c r="E16">
+        <v>145</v>
+      </c>
+      <c r="F16">
+        <v>141</v>
+      </c>
+      <c r="G16">
+        <v>81</v>
+      </c>
+      <c r="H16">
+        <v>18</v>
+      </c>
+      <c r="I16">
+        <f t="shared" si="0"/>
+        <v>480</v>
+      </c>
+    </row>
+    <row r="17" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="C17">
+        <v>8</v>
+      </c>
+      <c r="D17">
+        <v>88</v>
+      </c>
+      <c r="E17">
+        <v>191</v>
+      </c>
+      <c r="F17">
+        <v>142</v>
+      </c>
+      <c r="G17">
+        <v>49</v>
+      </c>
+      <c r="H17">
+        <v>16</v>
+      </c>
+      <c r="I17">
+        <f t="shared" si="0"/>
+        <v>486</v>
+      </c>
+    </row>
+    <row r="18" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="C18">
+        <v>9</v>
+      </c>
+      <c r="D18">
+        <v>93</v>
+      </c>
+      <c r="E18">
+        <v>158</v>
+      </c>
+      <c r="F18">
+        <v>156</v>
+      </c>
+      <c r="G18">
+        <v>66</v>
+      </c>
+      <c r="H18">
+        <v>18</v>
+      </c>
+      <c r="I18">
+        <f t="shared" si="0"/>
+        <v>491</v>
+      </c>
+    </row>
+    <row r="19" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="C19">
+        <v>10</v>
+      </c>
+      <c r="D19">
+        <v>95</v>
+      </c>
+      <c r="E19">
+        <v>171</v>
+      </c>
+      <c r="F19">
+        <v>113</v>
+      </c>
+      <c r="G19">
+        <v>75</v>
+      </c>
+      <c r="H19">
+        <v>24</v>
+      </c>
+      <c r="I19">
+        <f t="shared" si="0"/>
+        <v>478</v>
+      </c>
+    </row>
+    <row r="20" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="C20">
+        <v>11</v>
+      </c>
+      <c r="D20">
+        <v>101</v>
+      </c>
+      <c r="E20">
+        <v>144</v>
+      </c>
+      <c r="F20">
+        <v>98</v>
+      </c>
+      <c r="G20">
+        <v>92</v>
+      </c>
+      <c r="H20">
+        <v>34</v>
+      </c>
+      <c r="I20">
+        <f t="shared" si="0"/>
+        <v>469</v>
+      </c>
+    </row>
+    <row r="21" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="C21">
+        <v>12</v>
+      </c>
+      <c r="D21">
+        <v>96</v>
+      </c>
+      <c r="E21">
+        <v>149</v>
+      </c>
+      <c r="F21">
+        <v>120</v>
+      </c>
+      <c r="G21">
+        <v>88</v>
+      </c>
+      <c r="H21">
+        <v>30</v>
+      </c>
+      <c r="I21">
+        <f t="shared" si="0"/>
+        <v>483</v>
+      </c>
+    </row>
+    <row r="22" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="C22">
+        <v>13</v>
+      </c>
+      <c r="D22">
+        <v>70</v>
+      </c>
+      <c r="E22">
+        <v>159</v>
+      </c>
+      <c r="F22">
+        <v>135</v>
+      </c>
+      <c r="G22">
+        <v>97</v>
+      </c>
+      <c r="H22">
+        <v>20</v>
+      </c>
+      <c r="I22">
+        <f t="shared" si="0"/>
+        <v>481</v>
+      </c>
+    </row>
+    <row r="23" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="C23">
+        <v>14</v>
+      </c>
+      <c r="D23">
+        <v>96</v>
+      </c>
+      <c r="E23">
+        <v>137</v>
+      </c>
+      <c r="F23">
+        <v>134</v>
+      </c>
+      <c r="G23">
+        <v>86</v>
+      </c>
+      <c r="H23">
+        <v>26</v>
+      </c>
+      <c r="I23">
+        <f t="shared" si="0"/>
+        <v>479</v>
+      </c>
+    </row>
+    <row r="24" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="C24">
+        <v>15</v>
+      </c>
+      <c r="D24">
+        <v>88</v>
+      </c>
+      <c r="E24">
+        <v>112</v>
+      </c>
+      <c r="F24">
+        <v>126</v>
+      </c>
+      <c r="G24">
+        <v>111</v>
+      </c>
+      <c r="H24">
+        <v>41</v>
+      </c>
+      <c r="I24">
+        <f t="shared" si="0"/>
+        <v>478</v>
+      </c>
+    </row>
+    <row r="25" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="C25">
+        <v>16</v>
+      </c>
+      <c r="D25">
+        <v>76</v>
+      </c>
+      <c r="E25">
+        <v>122</v>
+      </c>
+      <c r="F25">
+        <v>109</v>
+      </c>
+      <c r="G25">
+        <v>82</v>
+      </c>
+      <c r="H25">
+        <v>72</v>
+      </c>
+      <c r="I25">
+        <f t="shared" si="0"/>
+        <v>461</v>
+      </c>
+    </row>
+    <row r="26" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="C26">
+        <v>17</v>
+      </c>
+      <c r="D26">
+        <v>118</v>
+      </c>
+      <c r="E26">
+        <v>176</v>
+      </c>
+      <c r="F26">
+        <v>127</v>
+      </c>
+      <c r="G26">
+        <v>58</v>
+      </c>
+      <c r="H26">
+        <v>16</v>
+      </c>
+      <c r="I26">
+        <f t="shared" si="0"/>
+        <v>495</v>
+      </c>
+    </row>
+    <row r="27" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="C27">
+        <v>18</v>
+      </c>
+      <c r="D27">
+        <v>99</v>
+      </c>
+      <c r="E27">
+        <v>134</v>
+      </c>
+      <c r="F27">
+        <v>141</v>
+      </c>
+      <c r="G27">
+        <v>75</v>
+      </c>
+      <c r="H27">
+        <v>30</v>
+      </c>
+      <c r="I27">
+        <f t="shared" si="0"/>
+        <v>479</v>
+      </c>
+    </row>
+    <row r="28" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="C28">
+        <v>19</v>
+      </c>
+      <c r="D28">
+        <v>92</v>
+      </c>
+      <c r="E28">
+        <v>159</v>
+      </c>
+      <c r="F28">
+        <v>138</v>
+      </c>
+      <c r="G28">
+        <v>66</v>
+      </c>
+      <c r="H28">
+        <v>24</v>
+      </c>
+      <c r="I28">
+        <f t="shared" si="0"/>
+        <v>479</v>
+      </c>
+    </row>
+    <row r="29" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="C29">
+        <v>20</v>
+      </c>
+      <c r="D29">
+        <v>60</v>
+      </c>
+      <c r="E29">
+        <v>148</v>
+      </c>
+      <c r="F29">
+        <v>146</v>
+      </c>
+      <c r="G29">
+        <v>95</v>
+      </c>
+      <c r="H29">
+        <v>25</v>
+      </c>
+      <c r="I29">
+        <f t="shared" si="0"/>
+        <v>474</v>
+      </c>
+    </row>
+    <row r="30" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B30" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="C30" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="D30">
+        <f>AVERAGE(D10:D29)</f>
+        <v>90.35</v>
+      </c>
+      <c r="E30">
+        <f t="shared" ref="E30:H30" si="1">AVERAGE(E10:E29)</f>
+        <v>147.30000000000001</v>
+      </c>
+      <c r="F30">
+        <f t="shared" si="1"/>
+        <v>131.75</v>
+      </c>
+      <c r="G30">
+        <f t="shared" si="1"/>
+        <v>80.5</v>
+      </c>
+      <c r="H30">
+        <f t="shared" si="1"/>
+        <v>29</v>
+      </c>
+      <c r="I30">
+        <f t="shared" si="0"/>
+        <v>478.9</v>
+      </c>
+    </row>
+    <row r="34" spans="3:9" x14ac:dyDescent="0.2">
+      <c r="C34" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="D34" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="E34" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="F34" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="G34" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="H34" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="35" spans="3:9" x14ac:dyDescent="0.2">
+      <c r="C35">
+        <v>1</v>
+      </c>
+      <c r="D35">
+        <v>111</v>
+      </c>
+      <c r="E35">
+        <v>172</v>
+      </c>
+      <c r="F35">
+        <v>129</v>
+      </c>
+      <c r="G35">
+        <v>67</v>
+      </c>
+      <c r="H35">
+        <v>20</v>
+      </c>
+      <c r="I35">
+        <f>SUM(D35:H35)</f>
+        <v>499</v>
+      </c>
+    </row>
+    <row r="36" spans="3:9" x14ac:dyDescent="0.2">
+      <c r="C36">
+        <v>2</v>
+      </c>
+      <c r="D36">
+        <v>128</v>
+      </c>
+      <c r="E36">
+        <v>155</v>
+      </c>
+      <c r="F36">
+        <v>116</v>
+      </c>
+      <c r="G36">
+        <v>77</v>
+      </c>
+      <c r="H36">
+        <v>23</v>
+      </c>
+      <c r="I36">
+        <f t="shared" ref="I36:I55" si="2">SUM(D36:H36)</f>
+        <v>499</v>
+      </c>
+    </row>
+    <row r="37" spans="3:9" x14ac:dyDescent="0.2">
+      <c r="C37">
+        <v>3</v>
+      </c>
+      <c r="D37">
+        <v>104</v>
+      </c>
+      <c r="E37">
+        <v>137</v>
+      </c>
+      <c r="F37">
+        <v>129</v>
+      </c>
+      <c r="G37">
+        <v>79</v>
+      </c>
+      <c r="H37">
+        <v>43</v>
+      </c>
+      <c r="I37">
+        <f t="shared" si="2"/>
+        <v>492</v>
+      </c>
+    </row>
+    <row r="38" spans="3:9" x14ac:dyDescent="0.2">
+      <c r="C38">
+        <v>4</v>
+      </c>
+      <c r="D38">
+        <v>115</v>
+      </c>
+      <c r="E38">
+        <v>117</v>
+      </c>
+      <c r="F38">
+        <v>130</v>
+      </c>
+      <c r="G38">
+        <v>79</v>
+      </c>
+      <c r="H38">
+        <v>51</v>
+      </c>
+      <c r="I38">
+        <f t="shared" si="2"/>
+        <v>492</v>
+      </c>
+    </row>
+    <row r="39" spans="3:9" x14ac:dyDescent="0.2">
+      <c r="C39">
+        <v>5</v>
+      </c>
+      <c r="D39">
+        <v>139</v>
+      </c>
+      <c r="E39">
+        <v>153</v>
+      </c>
+      <c r="F39">
+        <v>124</v>
+      </c>
+      <c r="G39">
+        <v>58</v>
+      </c>
+      <c r="H39">
+        <v>21</v>
+      </c>
+      <c r="I39">
+        <f t="shared" si="2"/>
+        <v>495</v>
+      </c>
+    </row>
+    <row r="40" spans="3:9" x14ac:dyDescent="0.2">
+      <c r="C40">
+        <v>6</v>
+      </c>
+      <c r="D40">
+        <v>98</v>
+      </c>
+      <c r="E40">
+        <v>167</v>
+      </c>
+      <c r="F40">
+        <v>122</v>
+      </c>
+      <c r="G40">
+        <v>79</v>
+      </c>
+      <c r="H40">
+        <v>33</v>
+      </c>
+      <c r="I40">
+        <f t="shared" si="2"/>
+        <v>499</v>
+      </c>
+    </row>
+    <row r="41" spans="3:9" x14ac:dyDescent="0.2">
+      <c r="C41">
+        <v>7</v>
+      </c>
+      <c r="D41">
+        <v>119</v>
+      </c>
+      <c r="E41">
+        <v>160</v>
+      </c>
+      <c r="F41">
+        <v>128</v>
+      </c>
+      <c r="G41">
+        <v>64</v>
+      </c>
+      <c r="H41">
+        <v>22</v>
+      </c>
+      <c r="I41">
+        <f t="shared" si="2"/>
+        <v>493</v>
+      </c>
+    </row>
+    <row r="42" spans="3:9" x14ac:dyDescent="0.2">
+      <c r="C42">
+        <v>8</v>
+      </c>
+      <c r="D42">
+        <v>112</v>
+      </c>
+      <c r="E42">
+        <v>185</v>
+      </c>
+      <c r="F42">
+        <v>118</v>
+      </c>
+      <c r="G42">
+        <v>64</v>
+      </c>
+      <c r="H42">
+        <v>17</v>
+      </c>
+      <c r="I42">
+        <f t="shared" si="2"/>
+        <v>496</v>
+      </c>
+    </row>
+    <row r="43" spans="3:9" x14ac:dyDescent="0.2">
+      <c r="C43">
+        <v>9</v>
+      </c>
+      <c r="D43">
+        <v>139</v>
+      </c>
+      <c r="E43">
+        <v>147</v>
+      </c>
+      <c r="F43">
+        <v>125</v>
+      </c>
+      <c r="G43">
+        <v>52</v>
+      </c>
+      <c r="H43">
+        <v>23</v>
+      </c>
+      <c r="I43">
+        <f t="shared" si="2"/>
+        <v>486</v>
+      </c>
+    </row>
+    <row r="44" spans="3:9" x14ac:dyDescent="0.2">
+      <c r="C44">
+        <v>10</v>
+      </c>
+      <c r="D44">
+        <v>125</v>
+      </c>
+      <c r="E44">
+        <v>159</v>
+      </c>
+      <c r="F44">
+        <v>128</v>
+      </c>
+      <c r="G44">
+        <v>69</v>
+      </c>
+      <c r="H44">
+        <v>14</v>
+      </c>
+      <c r="I44">
+        <f t="shared" si="2"/>
+        <v>495</v>
+      </c>
+    </row>
+    <row r="45" spans="3:9" x14ac:dyDescent="0.2">
+      <c r="C45">
+        <v>11</v>
+      </c>
+      <c r="D45">
+        <v>146</v>
+      </c>
+      <c r="E45">
+        <v>171</v>
+      </c>
+      <c r="F45">
+        <v>113</v>
+      </c>
+      <c r="G45">
+        <v>55</v>
+      </c>
+      <c r="H45">
+        <v>13</v>
+      </c>
+      <c r="I45">
+        <f t="shared" si="2"/>
+        <v>498</v>
+      </c>
+    </row>
+    <row r="46" spans="3:9" x14ac:dyDescent="0.2">
+      <c r="C46">
+        <v>12</v>
+      </c>
+      <c r="D46">
+        <v>123</v>
+      </c>
+      <c r="E46">
+        <v>162</v>
+      </c>
+      <c r="F46">
+        <v>129</v>
+      </c>
+      <c r="G46">
+        <v>74</v>
+      </c>
+      <c r="H46">
+        <v>12</v>
+      </c>
+      <c r="I46">
+        <f t="shared" si="2"/>
+        <v>500</v>
+      </c>
+    </row>
+    <row r="47" spans="3:9" x14ac:dyDescent="0.2">
+      <c r="C47">
+        <v>13</v>
+      </c>
+      <c r="D47">
+        <v>99</v>
+      </c>
+      <c r="E47">
+        <v>164</v>
+      </c>
+      <c r="F47">
+        <v>101</v>
+      </c>
+      <c r="G47">
+        <v>73</v>
+      </c>
+      <c r="H47">
+        <v>46</v>
+      </c>
+      <c r="I47">
+        <f t="shared" si="2"/>
+        <v>483</v>
+      </c>
+    </row>
+    <row r="48" spans="3:9" x14ac:dyDescent="0.2">
+      <c r="C48">
+        <v>14</v>
+      </c>
+      <c r="D48">
+        <v>111</v>
+      </c>
+      <c r="E48">
+        <v>146</v>
+      </c>
+      <c r="F48">
+        <v>132</v>
+      </c>
+      <c r="G48">
+        <v>69</v>
+      </c>
+      <c r="H48">
+        <v>36</v>
+      </c>
+      <c r="I48">
+        <f t="shared" si="2"/>
+        <v>494</v>
+      </c>
+    </row>
+    <row r="49" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="C49">
+        <v>15</v>
+      </c>
+      <c r="D49">
+        <v>119</v>
+      </c>
+      <c r="E49">
+        <v>179</v>
+      </c>
+      <c r="F49">
+        <v>118</v>
+      </c>
+      <c r="G49">
+        <v>67</v>
+      </c>
+      <c r="H49">
+        <v>15</v>
+      </c>
+      <c r="I49">
+        <f t="shared" si="2"/>
+        <v>498</v>
+      </c>
+    </row>
+    <row r="50" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="C50">
+        <v>16</v>
+      </c>
+      <c r="D50">
+        <v>134</v>
+      </c>
+      <c r="E50">
+        <v>162</v>
+      </c>
+      <c r="F50">
+        <v>111</v>
+      </c>
+      <c r="G50">
+        <v>62</v>
+      </c>
+      <c r="H50">
+        <v>29</v>
+      </c>
+      <c r="I50">
+        <f t="shared" si="2"/>
+        <v>498</v>
+      </c>
+    </row>
+    <row r="51" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="C51">
+        <v>17</v>
+      </c>
+      <c r="D51">
+        <v>113</v>
+      </c>
+      <c r="E51">
+        <v>159</v>
+      </c>
+      <c r="F51">
+        <v>122</v>
+      </c>
+      <c r="G51">
+        <v>81</v>
+      </c>
+      <c r="H51">
+        <v>23</v>
+      </c>
+      <c r="I51">
+        <f t="shared" si="2"/>
+        <v>498</v>
+      </c>
+    </row>
+    <row r="52" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="C52">
+        <v>18</v>
+      </c>
+      <c r="D52">
+        <v>138</v>
+      </c>
+      <c r="E52">
+        <v>145</v>
+      </c>
+      <c r="F52">
+        <v>123</v>
+      </c>
+      <c r="G52">
+        <v>67</v>
+      </c>
+      <c r="H52">
+        <v>23</v>
+      </c>
+      <c r="I52">
+        <f t="shared" si="2"/>
+        <v>496</v>
+      </c>
+    </row>
+    <row r="53" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="C53">
+        <v>19</v>
+      </c>
+      <c r="D53">
+        <v>94</v>
+      </c>
+      <c r="E53">
+        <v>187</v>
+      </c>
+      <c r="F53">
+        <v>138</v>
+      </c>
+      <c r="G53">
+        <v>60</v>
+      </c>
+      <c r="H53">
+        <v>20</v>
+      </c>
+      <c r="I53">
+        <f t="shared" si="2"/>
+        <v>499</v>
+      </c>
+    </row>
+    <row r="54" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="C54">
+        <v>20</v>
+      </c>
+      <c r="D54">
+        <v>108</v>
+      </c>
+      <c r="E54">
+        <v>137</v>
+      </c>
+      <c r="F54">
+        <v>129</v>
+      </c>
+      <c r="G54">
+        <v>80</v>
+      </c>
+      <c r="H54">
+        <v>37</v>
+      </c>
+      <c r="I54">
+        <f t="shared" si="2"/>
+        <v>491</v>
+      </c>
+    </row>
+    <row r="55" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B55" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="C55" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="D55">
+        <f>AVERAGE(D35:D54)</f>
+        <v>118.75</v>
+      </c>
+      <c r="E55">
+        <f t="shared" ref="E55" si="3">AVERAGE(E35:E54)</f>
+        <v>158.19999999999999</v>
+      </c>
+      <c r="F55">
+        <f t="shared" ref="F55" si="4">AVERAGE(F35:F54)</f>
+        <v>123.25</v>
+      </c>
+      <c r="G55">
+        <f t="shared" ref="G55" si="5">AVERAGE(G35:G54)</f>
+        <v>68.8</v>
+      </c>
+      <c r="H55">
+        <f t="shared" ref="H55" si="6">AVERAGE(H35:H54)</f>
+        <v>26.05</v>
+      </c>
+      <c r="I55">
+        <f t="shared" si="2"/>
+        <v>495.05</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="B3:F4"/>
+    <mergeCell ref="B5:F5"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
 </file>